--- a/instance_generator/instances/instance_T1030/fragmentation/fragmentation_link1_request1200.xlsx
+++ b/instance_generator/instances/instance_T1030/fragmentation/fragmentation_link1_request1200.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C597"/>
+  <dimension ref="A1:C582"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.856</v>
+        <v>4.568</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -472,7 +472,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>11.456</v>
+        <v>5.28</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -483,7 +483,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.88</v>
+        <v>4.656</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -494,7 +494,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>13.304</v>
+        <v>10.248</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -505,7 +505,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.904</v>
+        <v>4.752</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -516,7 +516,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>14.2</v>
+        <v>12.744</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -527,7 +527,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.904</v>
+        <v>4.744</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -538,7 +538,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>14.68</v>
+        <v>14.056</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.968</v>
+        <v>4.92</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -560,7 +560,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>14.968</v>
+        <v>14.824</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -571,7 +571,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.968</v>
+        <v>4.92</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -582,7 +582,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>29.968</v>
+        <v>29.904</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -593,7 +593,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.04</v>
+        <v>2.12</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -604,7 +604,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2.52</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -615,7 +615,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3.72</v>
+        <v>0.48</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
@@ -626,7 +626,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2.096</v>
+        <v>0.28</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
@@ -637,7 +637,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2.008</v>
+        <v>0.048</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -648,7 +648,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3.224</v>
+        <v>0.024</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
@@ -659,7 +659,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2.152</v>
+        <v>0.168</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -670,7 +670,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1.376</v>
+        <v>0.144</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
@@ -681,7 +681,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.472</v>
+        <v>0.192</v>
       </c>
       <c r="C23" t="n">
         <v>1</v>
@@ -692,7 +692,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.624</v>
+        <v>0.008</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -703,7 +703,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.536</v>
+        <v>0.048</v>
       </c>
       <c r="C25" t="n">
         <v>1</v>
@@ -714,7 +714,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.704</v>
+        <v>0.056</v>
       </c>
       <c r="C26" t="n">
         <v>1</v>
@@ -725,7 +725,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1.2</v>
+        <v>0.016</v>
       </c>
       <c r="C27" t="n">
         <v>1</v>
@@ -736,7 +736,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.784</v>
+        <v>0.016</v>
       </c>
       <c r="C28" t="n">
         <v>1</v>
@@ -747,10 +747,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>2.568</v>
+        <v>0.024</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>31251</v>
       </c>
     </row>
     <row r="30">
@@ -758,10 +758,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3.8</v>
+        <v>0.016</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>31251</v>
       </c>
     </row>
     <row r="31">
@@ -769,10 +769,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>4.472</v>
+        <v>0.008</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>31251</v>
       </c>
     </row>
     <row r="32">
@@ -780,10 +780,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1.928</v>
+        <v>0.152</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>31251</v>
       </c>
     </row>
     <row r="33">
@@ -791,10 +791,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3.28</v>
+        <v>0.256</v>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>31251</v>
       </c>
     </row>
     <row r="34">
@@ -802,10 +802,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3.656</v>
+        <v>0.216</v>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>31251</v>
       </c>
     </row>
     <row r="35">
@@ -813,10 +813,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>4.696</v>
+        <v>0.984</v>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>31251</v>
       </c>
     </row>
     <row r="36">
@@ -824,10 +824,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>4.744</v>
+        <v>3.36</v>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>31251</v>
       </c>
     </row>
     <row r="37">
@@ -835,10 +835,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>3.912</v>
+        <v>2.24</v>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>31251</v>
       </c>
     </row>
     <row r="38">
@@ -846,7 +846,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>4.304</v>
+        <v>1.744</v>
       </c>
       <c r="C38" t="n">
         <v>31251</v>
@@ -857,7 +857,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.696</v>
+        <v>0.064</v>
       </c>
       <c r="C39" t="n">
         <v>31251</v>
@@ -868,7 +868,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.32</v>
+        <v>0.136</v>
       </c>
       <c r="C40" t="n">
         <v>31251</v>
@@ -879,7 +879,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>9.640000000000001</v>
+        <v>0.264</v>
       </c>
       <c r="C41" t="n">
         <v>31251</v>
@@ -890,7 +890,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.696</v>
+        <v>0.24</v>
       </c>
       <c r="C42" t="n">
         <v>31251</v>
@@ -901,7 +901,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>9.936</v>
+        <v>0.496</v>
       </c>
       <c r="C43" t="n">
         <v>31251</v>
@@ -912,7 +912,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>19.512</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="C44" t="n">
         <v>31251</v>
@@ -923,7 +923,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>3.912</v>
+        <v>0.136</v>
       </c>
       <c r="C45" t="n">
         <v>31251</v>
@@ -934,7 +934,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>3.92</v>
+        <v>0.08</v>
       </c>
       <c r="C46" t="n">
         <v>31251</v>
@@ -945,7 +945,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>3.92</v>
+        <v>0.36</v>
       </c>
       <c r="C47" t="n">
         <v>31251</v>
@@ -956,7 +956,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.184</v>
+        <v>0.04</v>
       </c>
       <c r="C48" t="n">
         <v>31251</v>
@@ -967,7 +967,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.048</v>
+        <v>0.056</v>
       </c>
       <c r="C49" t="n">
         <v>31251</v>
@@ -978,7 +978,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>3.904</v>
+        <v>0.12</v>
       </c>
       <c r="C50" t="n">
         <v>31251</v>
@@ -989,7 +989,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>2.768</v>
+        <v>0.504</v>
       </c>
       <c r="C51" t="n">
         <v>31251</v>
@@ -1000,7 +1000,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>2.584</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="C52" t="n">
         <v>31251</v>
@@ -1011,7 +1011,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>3.544</v>
+        <v>0.128</v>
       </c>
       <c r="C53" t="n">
         <v>31251</v>
@@ -1022,7 +1022,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>3.392</v>
+        <v>0.416</v>
       </c>
       <c r="C54" t="n">
         <v>31251</v>
@@ -1033,7 +1033,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1.384</v>
+        <v>0.448</v>
       </c>
       <c r="C55" t="n">
         <v>31251</v>
@@ -1044,7 +1044,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>2.392</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="C56" t="n">
         <v>31251</v>
@@ -1055,7 +1055,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="C57" t="n">
         <v>31251</v>
@@ -1066,7 +1066,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>2.128</v>
+        <v>0.472</v>
       </c>
       <c r="C58" t="n">
         <v>31251</v>
@@ -1077,7 +1077,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>3.104</v>
+        <v>0.544</v>
       </c>
       <c r="C59" t="n">
         <v>31251</v>
@@ -1088,7 +1088,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>2.88</v>
+        <v>0.008</v>
       </c>
       <c r="C60" t="n">
         <v>31251</v>
@@ -1099,7 +1099,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>3.92</v>
+        <v>1.528</v>
       </c>
       <c r="C61" t="n">
         <v>31251</v>
@@ -1110,7 +1110,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>2.992</v>
+        <v>4.256</v>
       </c>
       <c r="C62" t="n">
         <v>31251</v>
@@ -1121,7 +1121,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>3.656</v>
+        <v>9.096</v>
       </c>
       <c r="C63" t="n">
         <v>31251</v>
@@ -1132,7 +1132,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>3.128</v>
+        <v>4.92</v>
       </c>
       <c r="C64" t="n">
         <v>31251</v>
@@ -1143,7 +1143,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>2.88</v>
+        <v>7.672</v>
       </c>
       <c r="C65" t="n">
         <v>31251</v>
@@ -1154,10 +1154,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>3.016</v>
+        <v>2.704</v>
       </c>
       <c r="C66" t="n">
-        <v>31251</v>
+        <v>62501</v>
       </c>
     </row>
     <row r="67">
@@ -1165,10 +1165,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>3.4</v>
+        <v>1.928</v>
       </c>
       <c r="C67" t="n">
-        <v>31251</v>
+        <v>62501</v>
       </c>
     </row>
     <row r="68">
@@ -1176,10 +1176,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.08</v>
+        <v>4.064</v>
       </c>
       <c r="C68" t="n">
-        <v>31251</v>
+        <v>62501</v>
       </c>
     </row>
     <row r="69">
@@ -1187,10 +1187,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.08</v>
+        <v>3.32</v>
       </c>
       <c r="C69" t="n">
-        <v>31251</v>
+        <v>62501</v>
       </c>
     </row>
     <row r="70">
@@ -1198,10 +1198,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.576</v>
+        <v>0.144</v>
       </c>
       <c r="C70" t="n">
-        <v>31251</v>
+        <v>62501</v>
       </c>
     </row>
     <row r="71">
@@ -1209,10 +1209,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.6</v>
+        <v>2.28</v>
       </c>
       <c r="C71" t="n">
-        <v>31251</v>
+        <v>62501</v>
       </c>
     </row>
     <row r="72">
@@ -1220,10 +1220,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>9.096</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="C72" t="n">
-        <v>31251</v>
+        <v>62501</v>
       </c>
     </row>
     <row r="73">
@@ -1231,10 +1231,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.32</v>
+        <v>1.44</v>
       </c>
       <c r="C73" t="n">
-        <v>31251</v>
+        <v>62501</v>
       </c>
     </row>
     <row r="74">
@@ -1242,10 +1242,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.968</v>
+        <v>2.32</v>
       </c>
       <c r="C74" t="n">
-        <v>31251</v>
+        <v>62501</v>
       </c>
     </row>
     <row r="75">
@@ -1253,10 +1253,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.72</v>
+        <v>0.76</v>
       </c>
       <c r="C75" t="n">
-        <v>31251</v>
+        <v>62501</v>
       </c>
     </row>
     <row r="76">
@@ -1264,10 +1264,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.752</v>
+        <v>0.48</v>
       </c>
       <c r="C76" t="n">
-        <v>31251</v>
+        <v>62501</v>
       </c>
     </row>
     <row r="77">
@@ -1275,10 +1275,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>9.688000000000001</v>
+        <v>0.632</v>
       </c>
       <c r="C77" t="n">
-        <v>31251</v>
+        <v>62501</v>
       </c>
     </row>
     <row r="78">
@@ -1286,10 +1286,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.712</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>31251</v>
+        <v>62501</v>
       </c>
     </row>
     <row r="79">
@@ -1297,10 +1297,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>9.496</v>
+        <v>0.432</v>
       </c>
       <c r="C79" t="n">
-        <v>31251</v>
+        <v>62501</v>
       </c>
     </row>
     <row r="80">
@@ -1308,7 +1308,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.224</v>
+        <v>0.392</v>
       </c>
       <c r="C80" t="n">
         <v>62501</v>
@@ -1319,7 +1319,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.184</v>
+        <v>0.376</v>
       </c>
       <c r="C81" t="n">
         <v>62501</v>
@@ -1330,7 +1330,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.68</v>
+        <v>0.736</v>
       </c>
       <c r="C82" t="n">
         <v>62501</v>
@@ -1341,7 +1341,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.432</v>
+        <v>0.776</v>
       </c>
       <c r="C83" t="n">
         <v>62501</v>
@@ -1352,7 +1352,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>3.36</v>
+        <v>1.52</v>
       </c>
       <c r="C84" t="n">
         <v>62501</v>
@@ -1363,7 +1363,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.08</v>
+        <v>5.416</v>
       </c>
       <c r="C85" t="n">
         <v>62501</v>
@@ -1374,7 +1374,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>3.344</v>
+        <v>3.232</v>
       </c>
       <c r="C86" t="n">
         <v>62501</v>
@@ -1385,7 +1385,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>3.792</v>
+        <v>3.192</v>
       </c>
       <c r="C87" t="n">
         <v>62501</v>
@@ -1396,7 +1396,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.096</v>
+        <v>9.08</v>
       </c>
       <c r="C88" t="n">
         <v>62501</v>
@@ -1407,7 +1407,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>3.288</v>
+        <v>4.184</v>
       </c>
       <c r="C89" t="n">
         <v>62501</v>
@@ -1418,7 +1418,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>3.176</v>
+        <v>4.728</v>
       </c>
       <c r="C90" t="n">
         <v>62501</v>
@@ -1429,7 +1429,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>3.528</v>
+        <v>3.176</v>
       </c>
       <c r="C91" t="n">
         <v>62501</v>
@@ -1440,7 +1440,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>2.952</v>
+        <v>4.096</v>
       </c>
       <c r="C92" t="n">
         <v>62501</v>
@@ -1451,7 +1451,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>2.88</v>
+        <v>9.928000000000001</v>
       </c>
       <c r="C93" t="n">
         <v>62501</v>
@@ -1462,7 +1462,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>2.92</v>
+        <v>9.832000000000001</v>
       </c>
       <c r="C94" t="n">
         <v>62501</v>
@@ -1473,7 +1473,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>3.48</v>
+        <v>9.144</v>
       </c>
       <c r="C95" t="n">
         <v>62501</v>
@@ -1484,7 +1484,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.312</v>
+        <v>2.512</v>
       </c>
       <c r="C96" t="n">
         <v>62501</v>
@@ -1495,7 +1495,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.424</v>
+        <v>4.12</v>
       </c>
       <c r="C97" t="n">
         <v>62501</v>
@@ -1506,7 +1506,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>3.856</v>
+        <v>4.112</v>
       </c>
       <c r="C98" t="n">
         <v>62501</v>
@@ -1517,7 +1517,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>3.824</v>
+        <v>3.24</v>
       </c>
       <c r="C99" t="n">
         <v>62501</v>
@@ -1528,7 +1528,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>8.456</v>
+        <v>3.36</v>
       </c>
       <c r="C100" t="n">
         <v>62501</v>
@@ -1539,7 +1539,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.408</v>
+        <v>3.456</v>
       </c>
       <c r="C101" t="n">
         <v>62501</v>
@@ -1550,7 +1550,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.392</v>
+        <v>1.712</v>
       </c>
       <c r="C102" t="n">
         <v>62501</v>
@@ -1561,7 +1561,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>9.688000000000001</v>
+        <v>3.368</v>
       </c>
       <c r="C103" t="n">
         <v>62501</v>
@@ -1572,7 +1572,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.72</v>
+        <v>4.088</v>
       </c>
       <c r="C104" t="n">
         <v>62501</v>
@@ -1583,7 +1583,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.904</v>
+        <v>1.136</v>
       </c>
       <c r="C105" t="n">
         <v>62501</v>
@@ -1594,7 +1594,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.384</v>
+        <v>4.152</v>
       </c>
       <c r="C106" t="n">
         <v>62501</v>
@@ -1605,7 +1605,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.696</v>
+        <v>1.664</v>
       </c>
       <c r="C107" t="n">
         <v>62501</v>
@@ -1616,7 +1616,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>9.976000000000001</v>
+        <v>1.848</v>
       </c>
       <c r="C108" t="n">
         <v>62501</v>
@@ -1627,10 +1627,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>9.936</v>
+        <v>1.68</v>
       </c>
       <c r="C109" t="n">
-        <v>62501</v>
+        <v>93751</v>
       </c>
     </row>
     <row r="110">
@@ -1638,10 +1638,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>9.712</v>
+        <v>4.24</v>
       </c>
       <c r="C110" t="n">
-        <v>62501</v>
+        <v>93751</v>
       </c>
     </row>
     <row r="111">
@@ -1649,10 +1649,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.16</v>
+        <v>0.776</v>
       </c>
       <c r="C111" t="n">
-        <v>62501</v>
+        <v>93751</v>
       </c>
     </row>
     <row r="112">
@@ -1660,10 +1660,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.704</v>
+        <v>1.472</v>
       </c>
       <c r="C112" t="n">
-        <v>62501</v>
+        <v>93751</v>
       </c>
     </row>
     <row r="113">
@@ -1671,10 +1671,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.704</v>
+        <v>3.144</v>
       </c>
       <c r="C113" t="n">
-        <v>62501</v>
+        <v>93751</v>
       </c>
     </row>
     <row r="114">
@@ -1682,10 +1682,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.408</v>
+        <v>3.232</v>
       </c>
       <c r="C114" t="n">
-        <v>62501</v>
+        <v>93751</v>
       </c>
     </row>
     <row r="115">
@@ -1693,10 +1693,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.448</v>
+        <v>2.264</v>
       </c>
       <c r="C115" t="n">
-        <v>62501</v>
+        <v>93751</v>
       </c>
     </row>
     <row r="116">
@@ -1704,10 +1704,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.48</v>
+        <v>14.12</v>
       </c>
       <c r="C116" t="n">
-        <v>62501</v>
+        <v>93751</v>
       </c>
     </row>
     <row r="117">
@@ -1715,10 +1715,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>3.888</v>
+        <v>2.208</v>
       </c>
       <c r="C117" t="n">
-        <v>62501</v>
+        <v>93751</v>
       </c>
     </row>
     <row r="118">
@@ -1726,10 +1726,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.448</v>
+        <v>4.272</v>
       </c>
       <c r="C118" t="n">
-        <v>62501</v>
+        <v>93751</v>
       </c>
     </row>
     <row r="119">
@@ -1737,10 +1737,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.696</v>
+        <v>19.256</v>
       </c>
       <c r="C119" t="n">
-        <v>62501</v>
+        <v>93751</v>
       </c>
     </row>
     <row r="120">
@@ -1748,10 +1748,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>3.696</v>
+        <v>3.184</v>
       </c>
       <c r="C120" t="n">
-        <v>62501</v>
+        <v>93751</v>
       </c>
     </row>
     <row r="121">
@@ -1759,10 +1759,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.712</v>
+        <v>14.04</v>
       </c>
       <c r="C121" t="n">
-        <v>62501</v>
+        <v>93751</v>
       </c>
     </row>
     <row r="122">
@@ -1770,10 +1770,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>3.88</v>
+        <v>4.16</v>
       </c>
       <c r="C122" t="n">
-        <v>62501</v>
+        <v>93751</v>
       </c>
     </row>
     <row r="123">
@@ -1781,10 +1781,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>3.936</v>
+        <v>9.256</v>
       </c>
       <c r="C123" t="n">
-        <v>62501</v>
+        <v>93751</v>
       </c>
     </row>
     <row r="124">
@@ -1792,10 +1792,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>3.88</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="C124" t="n">
-        <v>62501</v>
+        <v>93751</v>
       </c>
     </row>
     <row r="125">
@@ -1803,7 +1803,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>4.744</v>
+        <v>9.144</v>
       </c>
       <c r="C125" t="n">
         <v>93751</v>
@@ -1814,7 +1814,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>3.28</v>
+        <v>8.32</v>
       </c>
       <c r="C126" t="n">
         <v>93751</v>
@@ -1825,7 +1825,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>4.112</v>
+        <v>4.144</v>
       </c>
       <c r="C127" t="n">
         <v>93751</v>
@@ -1836,7 +1836,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>4.376</v>
+        <v>4.136</v>
       </c>
       <c r="C128" t="n">
         <v>93751</v>
@@ -1847,7 +1847,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>4.408</v>
+        <v>0.192</v>
       </c>
       <c r="C129" t="n">
         <v>93751</v>
@@ -1858,7 +1858,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>4.08</v>
+        <v>3.328</v>
       </c>
       <c r="C130" t="n">
         <v>93751</v>
@@ -1869,7 +1869,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>14.704</v>
+        <v>2.416</v>
       </c>
       <c r="C131" t="n">
         <v>93751</v>
@@ -1880,7 +1880,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>4.064</v>
+        <v>14.232</v>
       </c>
       <c r="C132" t="n">
         <v>93751</v>
@@ -1891,7 +1891,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>4.752</v>
+        <v>3.344</v>
       </c>
       <c r="C133" t="n">
         <v>93751</v>
@@ -1902,7 +1902,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>19.752</v>
+        <v>8.135999999999999</v>
       </c>
       <c r="C134" t="n">
         <v>93751</v>
@@ -1913,7 +1913,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>4.392</v>
+        <v>2.448</v>
       </c>
       <c r="C135" t="n">
         <v>93751</v>
@@ -1924,7 +1924,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>14.68</v>
+        <v>9.112</v>
       </c>
       <c r="C136" t="n">
         <v>93751</v>
@@ -1935,7 +1935,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>4.72</v>
+        <v>14.096</v>
       </c>
       <c r="C137" t="n">
         <v>93751</v>
@@ -1946,7 +1946,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>9.752000000000001</v>
+        <v>24.048</v>
       </c>
       <c r="C138" t="n">
         <v>93751</v>
@@ -1957,10 +1957,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>9.76</v>
+        <v>3.76</v>
       </c>
       <c r="C139" t="n">
-        <v>93751</v>
+        <v>125001</v>
       </c>
     </row>
     <row r="140">
@@ -1968,10 +1968,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>9.712</v>
+        <v>0.296</v>
       </c>
       <c r="C140" t="n">
-        <v>93751</v>
+        <v>125001</v>
       </c>
     </row>
     <row r="141">
@@ -1979,10 +1979,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>9.432</v>
+        <v>4.224</v>
       </c>
       <c r="C141" t="n">
-        <v>93751</v>
+        <v>125001</v>
       </c>
     </row>
     <row r="142">
@@ -1990,10 +1990,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>4.712</v>
+        <v>4.656</v>
       </c>
       <c r="C142" t="n">
-        <v>93751</v>
+        <v>125001</v>
       </c>
     </row>
     <row r="143">
@@ -2001,10 +2001,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>4.712</v>
+        <v>10.336</v>
       </c>
       <c r="C143" t="n">
-        <v>93751</v>
+        <v>125001</v>
       </c>
     </row>
     <row r="144">
@@ -2012,10 +2012,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>3.376</v>
+        <v>4.752</v>
       </c>
       <c r="C144" t="n">
-        <v>93751</v>
+        <v>125001</v>
       </c>
     </row>
     <row r="145">
@@ -2023,10 +2023,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>4.432</v>
+        <v>12.744</v>
       </c>
       <c r="C145" t="n">
-        <v>93751</v>
+        <v>125001</v>
       </c>
     </row>
     <row r="146">
@@ -2034,10 +2034,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>4.136</v>
+        <v>4.744</v>
       </c>
       <c r="C146" t="n">
-        <v>93751</v>
+        <v>125001</v>
       </c>
     </row>
     <row r="147">
@@ -2045,10 +2045,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>14.744</v>
+        <v>3.344</v>
       </c>
       <c r="C147" t="n">
-        <v>93751</v>
+        <v>125001</v>
       </c>
     </row>
     <row r="148">
@@ -2056,10 +2056,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>4.448</v>
+        <v>9.215999999999999</v>
       </c>
       <c r="C148" t="n">
-        <v>93751</v>
+        <v>125001</v>
       </c>
     </row>
     <row r="149">
@@ -2067,10 +2067,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>9.375999999999999</v>
+        <v>4.92</v>
       </c>
       <c r="C149" t="n">
-        <v>93751</v>
+        <v>125001</v>
       </c>
     </row>
     <row r="150">
@@ -2078,10 +2078,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>4.144</v>
+        <v>14.824</v>
       </c>
       <c r="C150" t="n">
-        <v>93751</v>
+        <v>125001</v>
       </c>
     </row>
     <row r="151">
@@ -2089,10 +2089,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>9.704000000000001</v>
+        <v>4.92</v>
       </c>
       <c r="C151" t="n">
-        <v>93751</v>
+        <v>125001</v>
       </c>
     </row>
     <row r="152">
@@ -2100,10 +2100,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>14.696</v>
+        <v>4.08</v>
       </c>
       <c r="C152" t="n">
-        <v>93751</v>
+        <v>125001</v>
       </c>
     </row>
     <row r="153">
@@ -2111,10 +2111,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>24.68</v>
+        <v>19.248</v>
       </c>
       <c r="C153" t="n">
-        <v>93751</v>
+        <v>125001</v>
       </c>
     </row>
     <row r="154">
@@ -2122,7 +2122,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>4.584</v>
+        <v>3.152</v>
       </c>
       <c r="C154" t="n">
         <v>125001</v>
@@ -2133,7 +2133,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>6.424</v>
+        <v>9.048</v>
       </c>
       <c r="C155" t="n">
         <v>125001</v>
@@ -2144,7 +2144,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>4.736</v>
+        <v>19.832</v>
       </c>
       <c r="C156" t="n">
         <v>125001</v>
@@ -2155,7 +2155,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>4.88</v>
+        <v>12.176</v>
       </c>
       <c r="C157" t="n">
         <v>125001</v>
@@ -2166,7 +2166,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>13.336</v>
+        <v>4.256</v>
       </c>
       <c r="C158" t="n">
         <v>125001</v>
@@ -2177,7 +2177,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>4.904</v>
+        <v>2.48</v>
       </c>
       <c r="C159" t="n">
         <v>125001</v>
@@ -2188,7 +2188,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>14.2</v>
+        <v>3.336</v>
       </c>
       <c r="C160" t="n">
         <v>125001</v>
@@ -2199,7 +2199,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>4.904</v>
+        <v>9.064</v>
       </c>
       <c r="C161" t="n">
         <v>125001</v>
@@ -2210,7 +2210,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>4.44</v>
+        <v>16.936</v>
       </c>
       <c r="C162" t="n">
         <v>125001</v>
@@ -2221,7 +2221,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>9.736000000000001</v>
+        <v>18.552</v>
       </c>
       <c r="C163" t="n">
         <v>125001</v>
@@ -2232,7 +2232,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>4.968</v>
+        <v>19.024</v>
       </c>
       <c r="C164" t="n">
         <v>125001</v>
@@ -2243,10 +2243,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>14.968</v>
+        <v>19.632</v>
       </c>
       <c r="C165" t="n">
-        <v>125001</v>
+        <v>156251</v>
       </c>
     </row>
     <row r="166">
@@ -2254,10 +2254,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>4.968</v>
+        <v>9.192</v>
       </c>
       <c r="C166" t="n">
-        <v>125001</v>
+        <v>156251</v>
       </c>
     </row>
     <row r="167">
@@ -2265,10 +2265,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>4.688</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="C167" t="n">
-        <v>125001</v>
+        <v>156251</v>
       </c>
     </row>
     <row r="168">
@@ -2276,10 +2276,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>19.744</v>
+        <v>19.288</v>
       </c>
       <c r="C168" t="n">
-        <v>125001</v>
+        <v>156251</v>
       </c>
     </row>
     <row r="169">
@@ -2287,10 +2287,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>4.384</v>
+        <v>4.128</v>
       </c>
       <c r="C169" t="n">
-        <v>125001</v>
+        <v>156251</v>
       </c>
     </row>
     <row r="170">
@@ -2298,10 +2298,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>9.68</v>
+        <v>4.928</v>
       </c>
       <c r="C170" t="n">
-        <v>125001</v>
+        <v>156251</v>
       </c>
     </row>
     <row r="171">
@@ -2309,10 +2309,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>19.936</v>
+        <v>9.183999999999999</v>
       </c>
       <c r="C171" t="n">
-        <v>125001</v>
+        <v>156251</v>
       </c>
     </row>
     <row r="172">
@@ -2320,10 +2320,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>14.04</v>
+        <v>3.296</v>
       </c>
       <c r="C172" t="n">
-        <v>125001</v>
+        <v>156251</v>
       </c>
     </row>
     <row r="173">
@@ -2331,10 +2331,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>4.752</v>
+        <v>14.2</v>
       </c>
       <c r="C173" t="n">
-        <v>125001</v>
+        <v>156251</v>
       </c>
     </row>
     <row r="174">
@@ -2342,10 +2342,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>4.136</v>
+        <v>17.376</v>
       </c>
       <c r="C174" t="n">
-        <v>125001</v>
+        <v>156251</v>
       </c>
     </row>
     <row r="175">
@@ -2353,10 +2353,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>4.44</v>
+        <v>3.072</v>
       </c>
       <c r="C175" t="n">
-        <v>125001</v>
+        <v>156251</v>
       </c>
     </row>
     <row r="176">
@@ -2364,10 +2364,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>9.688000000000001</v>
+        <v>14.856</v>
       </c>
       <c r="C176" t="n">
-        <v>125001</v>
+        <v>156251</v>
       </c>
     </row>
     <row r="177">
@@ -2375,10 +2375,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>18.88</v>
+        <v>18.536</v>
       </c>
       <c r="C177" t="n">
-        <v>125001</v>
+        <v>156251</v>
       </c>
     </row>
     <row r="178">
@@ -2386,10 +2386,10 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>19.488</v>
+        <v>19.128</v>
       </c>
       <c r="C178" t="n">
-        <v>125001</v>
+        <v>156251</v>
       </c>
     </row>
     <row r="179">
@@ -2397,10 +2397,10 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>19.648</v>
+        <v>19.576</v>
       </c>
       <c r="C179" t="n">
-        <v>125001</v>
+        <v>156251</v>
       </c>
     </row>
     <row r="180">
@@ -2408,7 +2408,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>19.872</v>
+        <v>19.912</v>
       </c>
       <c r="C180" t="n">
         <v>156251</v>
@@ -2419,7 +2419,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>9.712</v>
+        <v>9.904</v>
       </c>
       <c r="C181" t="n">
         <v>156251</v>
@@ -2430,7 +2430,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>9.704000000000001</v>
+        <v>9.928000000000001</v>
       </c>
       <c r="C182" t="n">
         <v>156251</v>
@@ -2441,10 +2441,10 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>19.744</v>
+        <v>4.568</v>
       </c>
       <c r="C183" t="n">
-        <v>156251</v>
+        <v>187501</v>
       </c>
     </row>
     <row r="184">
@@ -2452,10 +2452,10 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>4.648</v>
+        <v>14.928</v>
       </c>
       <c r="C184" t="n">
-        <v>156251</v>
+        <v>187501</v>
       </c>
     </row>
     <row r="185">
@@ -2463,10 +2463,10 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>4.976</v>
+        <v>4.496</v>
       </c>
       <c r="C185" t="n">
-        <v>156251</v>
+        <v>187501</v>
       </c>
     </row>
     <row r="186">
@@ -2474,10 +2474,10 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>9.728</v>
+        <v>9.128</v>
       </c>
       <c r="C186" t="n">
-        <v>156251</v>
+        <v>187501</v>
       </c>
     </row>
     <row r="187">
@@ -2485,10 +2485,10 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>4.4</v>
+        <v>4.928</v>
       </c>
       <c r="C187" t="n">
-        <v>156251</v>
+        <v>187501</v>
       </c>
     </row>
     <row r="188">
@@ -2496,10 +2496,10 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>14.728</v>
+        <v>8.584</v>
       </c>
       <c r="C188" t="n">
-        <v>156251</v>
+        <v>187501</v>
       </c>
     </row>
     <row r="189">
@@ -2507,10 +2507,10 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>19.072</v>
+        <v>4.088</v>
       </c>
       <c r="C189" t="n">
-        <v>156251</v>
+        <v>187501</v>
       </c>
     </row>
     <row r="190">
@@ -2518,10 +2518,10 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>4.232</v>
+        <v>4.904</v>
       </c>
       <c r="C190" t="n">
-        <v>156251</v>
+        <v>187501</v>
       </c>
     </row>
     <row r="191">
@@ -2529,10 +2529,10 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>14.952</v>
+        <v>3.512</v>
       </c>
       <c r="C191" t="n">
-        <v>156251</v>
+        <v>187501</v>
       </c>
     </row>
     <row r="192">
@@ -2540,10 +2540,10 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>19.424</v>
+        <v>14.928</v>
       </c>
       <c r="C192" t="n">
-        <v>156251</v>
+        <v>187501</v>
       </c>
     </row>
     <row r="193">
@@ -2551,10 +2551,10 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>19.68</v>
+        <v>19.12</v>
       </c>
       <c r="C193" t="n">
-        <v>156251</v>
+        <v>187501</v>
       </c>
     </row>
     <row r="194">
@@ -2562,10 +2562,10 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>19.84</v>
+        <v>19.44</v>
       </c>
       <c r="C194" t="n">
-        <v>156251</v>
+        <v>187501</v>
       </c>
     </row>
     <row r="195">
@@ -2573,10 +2573,10 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>19.968</v>
+        <v>19.4</v>
       </c>
       <c r="C195" t="n">
-        <v>156251</v>
+        <v>187501</v>
       </c>
     </row>
     <row r="196">
@@ -2584,10 +2584,10 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>9.968</v>
+        <v>19.672</v>
       </c>
       <c r="C196" t="n">
-        <v>156251</v>
+        <v>187501</v>
       </c>
     </row>
     <row r="197">
@@ -2595,10 +2595,10 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>9.976000000000001</v>
+        <v>9.568</v>
       </c>
       <c r="C197" t="n">
-        <v>156251</v>
+        <v>187501</v>
       </c>
     </row>
     <row r="198">
@@ -2606,7 +2606,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>4.68</v>
+        <v>9.928000000000001</v>
       </c>
       <c r="C198" t="n">
         <v>187501</v>
@@ -2617,7 +2617,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>14.976</v>
+        <v>314.904</v>
       </c>
       <c r="C199" t="n">
         <v>187501</v>
@@ -2628,10 +2628,10 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>4.816</v>
+        <v>4.568</v>
       </c>
       <c r="C200" t="n">
-        <v>187501</v>
+        <v>250001</v>
       </c>
     </row>
     <row r="201">
@@ -2639,10 +2639,10 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>9.704000000000001</v>
+        <v>5.376</v>
       </c>
       <c r="C201" t="n">
-        <v>187501</v>
+        <v>250001</v>
       </c>
     </row>
     <row r="202">
@@ -2650,10 +2650,10 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>4.976</v>
+        <v>4.656</v>
       </c>
       <c r="C202" t="n">
-        <v>187501</v>
+        <v>250001</v>
       </c>
     </row>
     <row r="203">
@@ -2661,10 +2661,10 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>9.488</v>
+        <v>10.336</v>
       </c>
       <c r="C203" t="n">
-        <v>187501</v>
+        <v>250001</v>
       </c>
     </row>
     <row r="204">
@@ -2672,10 +2672,10 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>4.696</v>
+        <v>4.752</v>
       </c>
       <c r="C204" t="n">
-        <v>187501</v>
+        <v>250001</v>
       </c>
     </row>
     <row r="205">
@@ -2683,10 +2683,10 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>4.968</v>
+        <v>12.832</v>
       </c>
       <c r="C205" t="n">
-        <v>187501</v>
+        <v>250001</v>
       </c>
     </row>
     <row r="206">
@@ -2694,10 +2694,10 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>4.424</v>
+        <v>4.744</v>
       </c>
       <c r="C206" t="n">
-        <v>187501</v>
+        <v>250001</v>
       </c>
     </row>
     <row r="207">
@@ -2705,10 +2705,10 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>14.976</v>
+        <v>14.144</v>
       </c>
       <c r="C207" t="n">
-        <v>187501</v>
+        <v>250001</v>
       </c>
     </row>
     <row r="208">
@@ -2716,10 +2716,10 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>19.68</v>
+        <v>4.92</v>
       </c>
       <c r="C208" t="n">
-        <v>187501</v>
+        <v>250001</v>
       </c>
     </row>
     <row r="209">
@@ -2727,10 +2727,10 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>19.808</v>
+        <v>14.824</v>
       </c>
       <c r="C209" t="n">
-        <v>187501</v>
+        <v>250001</v>
       </c>
     </row>
     <row r="210">
@@ -2738,10 +2738,10 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>19.776</v>
+        <v>4.92</v>
       </c>
       <c r="C210" t="n">
-        <v>187501</v>
+        <v>250001</v>
       </c>
     </row>
     <row r="211">
@@ -2749,10 +2749,10 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>19.88</v>
+        <v>39.904</v>
       </c>
       <c r="C211" t="n">
-        <v>187501</v>
+        <v>250001</v>
       </c>
     </row>
     <row r="212">
@@ -2760,10 +2760,10 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>9.872</v>
+        <v>19.832</v>
       </c>
       <c r="C212" t="n">
-        <v>187501</v>
+        <v>250001</v>
       </c>
     </row>
     <row r="213">
@@ -2771,10 +2771,10 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>9.976000000000001</v>
+        <v>18.696</v>
       </c>
       <c r="C213" t="n">
-        <v>187501</v>
+        <v>250001</v>
       </c>
     </row>
     <row r="214">
@@ -2782,10 +2782,10 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>314.968</v>
+        <v>18.144</v>
       </c>
       <c r="C214" t="n">
-        <v>187501</v>
+        <v>250001</v>
       </c>
     </row>
     <row r="215">
@@ -2793,7 +2793,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>4.856</v>
+        <v>17.872</v>
       </c>
       <c r="C215" t="n">
         <v>250001</v>
@@ -2804,7 +2804,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>11.456</v>
+        <v>19.24</v>
       </c>
       <c r="C216" t="n">
         <v>250001</v>
@@ -2815,7 +2815,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>4.88</v>
+        <v>19.024</v>
       </c>
       <c r="C217" t="n">
         <v>250001</v>
@@ -2826,10 +2826,10 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>13.336</v>
+        <v>19.632</v>
       </c>
       <c r="C218" t="n">
-        <v>250001</v>
+        <v>281251</v>
       </c>
     </row>
     <row r="219">
@@ -2837,10 +2837,10 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>4.904</v>
+        <v>19.192</v>
       </c>
       <c r="C219" t="n">
-        <v>250001</v>
+        <v>281251</v>
       </c>
     </row>
     <row r="220">
@@ -2848,10 +2848,10 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>14.232</v>
+        <v>19.288</v>
       </c>
       <c r="C220" t="n">
-        <v>250001</v>
+        <v>281251</v>
       </c>
     </row>
     <row r="221">
@@ -2859,10 +2859,10 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>4.904</v>
+        <v>4.128</v>
       </c>
       <c r="C221" t="n">
-        <v>250001</v>
+        <v>281251</v>
       </c>
     </row>
     <row r="222">
@@ -2870,10 +2870,10 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>14.712</v>
+        <v>14.928</v>
       </c>
       <c r="C222" t="n">
-        <v>250001</v>
+        <v>281251</v>
       </c>
     </row>
     <row r="223">
@@ -2881,10 +2881,10 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>4.968</v>
+        <v>19.032</v>
       </c>
       <c r="C223" t="n">
-        <v>250001</v>
+        <v>281251</v>
       </c>
     </row>
     <row r="224">
@@ -2892,10 +2892,10 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>14.968</v>
+        <v>18.256</v>
       </c>
       <c r="C224" t="n">
-        <v>250001</v>
+        <v>281251</v>
       </c>
     </row>
     <row r="225">
@@ -2903,10 +2903,10 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>4.968</v>
+        <v>3.072</v>
       </c>
       <c r="C225" t="n">
-        <v>250001</v>
+        <v>281251</v>
       </c>
     </row>
     <row r="226">
@@ -2914,10 +2914,10 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>39.968</v>
+        <v>14.856</v>
       </c>
       <c r="C226" t="n">
-        <v>250001</v>
+        <v>281251</v>
       </c>
     </row>
     <row r="227">
@@ -2925,10 +2925,10 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>19.936</v>
+        <v>18.536</v>
       </c>
       <c r="C227" t="n">
-        <v>250001</v>
+        <v>281251</v>
       </c>
     </row>
     <row r="228">
@@ -2936,10 +2936,10 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>19.552</v>
+        <v>19.128</v>
       </c>
       <c r="C228" t="n">
-        <v>250001</v>
+        <v>281251</v>
       </c>
     </row>
     <row r="229">
@@ -2947,10 +2947,10 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>19.36</v>
+        <v>19.576</v>
       </c>
       <c r="C229" t="n">
-        <v>250001</v>
+        <v>281251</v>
       </c>
     </row>
     <row r="230">
@@ -2958,10 +2958,10 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>19.2</v>
+        <v>19.912</v>
       </c>
       <c r="C230" t="n">
-        <v>250001</v>
+        <v>281251</v>
       </c>
     </row>
     <row r="231">
@@ -2969,10 +2969,10 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>19.72</v>
+        <v>9.904</v>
       </c>
       <c r="C231" t="n">
-        <v>250001</v>
+        <v>281251</v>
       </c>
     </row>
     <row r="232">
@@ -2980,10 +2980,10 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>19.648</v>
+        <v>9.928000000000001</v>
       </c>
       <c r="C232" t="n">
-        <v>250001</v>
+        <v>281251</v>
       </c>
     </row>
     <row r="233">
@@ -2991,10 +2991,10 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>19.872</v>
+        <v>4.568</v>
       </c>
       <c r="C233" t="n">
-        <v>281251</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="234">
@@ -3002,10 +3002,10 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>19.712</v>
+        <v>14.928</v>
       </c>
       <c r="C234" t="n">
-        <v>281251</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="235">
@@ -3013,10 +3013,10 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>19.744</v>
+        <v>14.496</v>
       </c>
       <c r="C235" t="n">
-        <v>281251</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="236">
@@ -3024,10 +3024,10 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>4.648</v>
+        <v>4.928</v>
       </c>
       <c r="C236" t="n">
-        <v>281251</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="237">
@@ -3035,10 +3035,10 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>14.976</v>
+        <v>13.496</v>
       </c>
       <c r="C237" t="n">
-        <v>281251</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="238">
@@ -3046,10 +3046,10 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>19.648</v>
+        <v>4.904</v>
       </c>
       <c r="C238" t="n">
-        <v>281251</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="239">
@@ -3057,10 +3057,10 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>19.36</v>
+        <v>3.512</v>
       </c>
       <c r="C239" t="n">
-        <v>281251</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="240">
@@ -3068,10 +3068,10 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>4.232</v>
+        <v>14.928</v>
       </c>
       <c r="C240" t="n">
-        <v>281251</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="241">
@@ -3079,10 +3079,10 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>14.952</v>
+        <v>19.12</v>
       </c>
       <c r="C241" t="n">
-        <v>281251</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="242">
@@ -3090,10 +3090,10 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>19.424</v>
+        <v>19.44</v>
       </c>
       <c r="C242" t="n">
-        <v>281251</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="243">
@@ -3101,10 +3101,10 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>19.68</v>
+        <v>19.4</v>
       </c>
       <c r="C243" t="n">
-        <v>281251</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="244">
@@ -3112,10 +3112,10 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>19.84</v>
+        <v>19.672</v>
       </c>
       <c r="C244" t="n">
-        <v>281251</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="245">
@@ -3123,10 +3123,10 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>19.968</v>
+        <v>9.568</v>
       </c>
       <c r="C245" t="n">
-        <v>281251</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="246">
@@ -3134,10 +3134,10 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>9.968</v>
+        <v>9.928000000000001</v>
       </c>
       <c r="C246" t="n">
-        <v>281251</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="247">
@@ -3145,10 +3145,10 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>9.976000000000001</v>
+        <v>314.904</v>
       </c>
       <c r="C247" t="n">
-        <v>281251</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="248">
@@ -3156,10 +3156,10 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>4.68</v>
+        <v>4.568</v>
       </c>
       <c r="C248" t="n">
-        <v>312501</v>
+        <v>375001</v>
       </c>
     </row>
     <row r="249">
@@ -3167,10 +3167,10 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>14.976</v>
+        <v>5.376</v>
       </c>
       <c r="C249" t="n">
-        <v>312501</v>
+        <v>375001</v>
       </c>
     </row>
     <row r="250">
@@ -3178,10 +3178,10 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>14.816</v>
+        <v>4.656</v>
       </c>
       <c r="C250" t="n">
-        <v>312501</v>
+        <v>375001</v>
       </c>
     </row>
     <row r="251">
@@ -3189,10 +3189,10 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>4.976</v>
+        <v>10.336</v>
       </c>
       <c r="C251" t="n">
-        <v>312501</v>
+        <v>375001</v>
       </c>
     </row>
     <row r="252">
@@ -3200,10 +3200,10 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>14.456</v>
+        <v>4.752</v>
       </c>
       <c r="C252" t="n">
-        <v>312501</v>
+        <v>375001</v>
       </c>
     </row>
     <row r="253">
@@ -3211,10 +3211,10 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>4.968</v>
+        <v>12.832</v>
       </c>
       <c r="C253" t="n">
-        <v>312501</v>
+        <v>375001</v>
       </c>
     </row>
     <row r="254">
@@ -3222,10 +3222,10 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>4.424</v>
+        <v>4.744</v>
       </c>
       <c r="C254" t="n">
-        <v>312501</v>
+        <v>375001</v>
       </c>
     </row>
     <row r="255">
@@ -3233,10 +3233,10 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>14.976</v>
+        <v>14.144</v>
       </c>
       <c r="C255" t="n">
-        <v>312501</v>
+        <v>375001</v>
       </c>
     </row>
     <row r="256">
@@ -3244,10 +3244,10 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>19.68</v>
+        <v>4.92</v>
       </c>
       <c r="C256" t="n">
-        <v>312501</v>
+        <v>375001</v>
       </c>
     </row>
     <row r="257">
@@ -3255,10 +3255,10 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>19.808</v>
+        <v>14.824</v>
       </c>
       <c r="C257" t="n">
-        <v>312501</v>
+        <v>375001</v>
       </c>
     </row>
     <row r="258">
@@ -3266,10 +3266,10 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>19.776</v>
+        <v>4.92</v>
       </c>
       <c r="C258" t="n">
-        <v>312501</v>
+        <v>375001</v>
       </c>
     </row>
     <row r="259">
@@ -3277,10 +3277,10 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>19.88</v>
+        <v>39.904</v>
       </c>
       <c r="C259" t="n">
-        <v>312501</v>
+        <v>375001</v>
       </c>
     </row>
     <row r="260">
@@ -3288,10 +3288,10 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>9.872</v>
+        <v>19.832</v>
       </c>
       <c r="C260" t="n">
-        <v>312501</v>
+        <v>375001</v>
       </c>
     </row>
     <row r="261">
@@ -3299,10 +3299,10 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>9.976000000000001</v>
+        <v>18.696</v>
       </c>
       <c r="C261" t="n">
-        <v>312501</v>
+        <v>375001</v>
       </c>
     </row>
     <row r="262">
@@ -3310,10 +3310,10 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>314.968</v>
+        <v>18.144</v>
       </c>
       <c r="C262" t="n">
-        <v>312501</v>
+        <v>375001</v>
       </c>
     </row>
     <row r="263">
@@ -3321,7 +3321,7 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>4.856</v>
+        <v>17.872</v>
       </c>
       <c r="C263" t="n">
         <v>375001</v>
@@ -3332,7 +3332,7 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>11.456</v>
+        <v>19.24</v>
       </c>
       <c r="C264" t="n">
         <v>375001</v>
@@ -3343,7 +3343,7 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>4.88</v>
+        <v>19.024</v>
       </c>
       <c r="C265" t="n">
         <v>375001</v>
@@ -3354,10 +3354,10 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>13.336</v>
+        <v>19.632</v>
       </c>
       <c r="C266" t="n">
-        <v>375001</v>
+        <v>406251</v>
       </c>
     </row>
     <row r="267">
@@ -3365,10 +3365,10 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>4.904</v>
+        <v>19.192</v>
       </c>
       <c r="C267" t="n">
-        <v>375001</v>
+        <v>406251</v>
       </c>
     </row>
     <row r="268">
@@ -3376,10 +3376,10 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>14.232</v>
+        <v>19.288</v>
       </c>
       <c r="C268" t="n">
-        <v>375001</v>
+        <v>406251</v>
       </c>
     </row>
     <row r="269">
@@ -3387,10 +3387,10 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>4.904</v>
+        <v>4.128</v>
       </c>
       <c r="C269" t="n">
-        <v>375001</v>
+        <v>406251</v>
       </c>
     </row>
     <row r="270">
@@ -3398,10 +3398,10 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>14.712</v>
+        <v>14.928</v>
       </c>
       <c r="C270" t="n">
-        <v>375001</v>
+        <v>406251</v>
       </c>
     </row>
     <row r="271">
@@ -3409,10 +3409,10 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>4.968</v>
+        <v>19.032</v>
       </c>
       <c r="C271" t="n">
-        <v>375001</v>
+        <v>406251</v>
       </c>
     </row>
     <row r="272">
@@ -3420,10 +3420,10 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>14.968</v>
+        <v>18.256</v>
       </c>
       <c r="C272" t="n">
-        <v>375001</v>
+        <v>406251</v>
       </c>
     </row>
     <row r="273">
@@ -3431,10 +3431,10 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>4.968</v>
+        <v>3.072</v>
       </c>
       <c r="C273" t="n">
-        <v>375001</v>
+        <v>406251</v>
       </c>
     </row>
     <row r="274">
@@ -3442,10 +3442,10 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>39.968</v>
+        <v>14.856</v>
       </c>
       <c r="C274" t="n">
-        <v>375001</v>
+        <v>406251</v>
       </c>
     </row>
     <row r="275">
@@ -3453,10 +3453,10 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>19.936</v>
+        <v>18.536</v>
       </c>
       <c r="C275" t="n">
-        <v>375001</v>
+        <v>406251</v>
       </c>
     </row>
     <row r="276">
@@ -3464,10 +3464,10 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>19.552</v>
+        <v>19.128</v>
       </c>
       <c r="C276" t="n">
-        <v>375001</v>
+        <v>406251</v>
       </c>
     </row>
     <row r="277">
@@ -3475,10 +3475,10 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>19.36</v>
+        <v>19.576</v>
       </c>
       <c r="C277" t="n">
-        <v>375001</v>
+        <v>406251</v>
       </c>
     </row>
     <row r="278">
@@ -3486,10 +3486,10 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>19.2</v>
+        <v>19.912</v>
       </c>
       <c r="C278" t="n">
-        <v>375001</v>
+        <v>406251</v>
       </c>
     </row>
     <row r="279">
@@ -3497,10 +3497,10 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>19.72</v>
+        <v>9.904</v>
       </c>
       <c r="C279" t="n">
-        <v>375001</v>
+        <v>406251</v>
       </c>
     </row>
     <row r="280">
@@ -3508,10 +3508,10 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>19.648</v>
+        <v>9.928000000000001</v>
       </c>
       <c r="C280" t="n">
-        <v>375001</v>
+        <v>406251</v>
       </c>
     </row>
     <row r="281">
@@ -3519,10 +3519,10 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>19.872</v>
+        <v>4.568</v>
       </c>
       <c r="C281" t="n">
-        <v>406251</v>
+        <v>437501</v>
       </c>
     </row>
     <row r="282">
@@ -3530,10 +3530,10 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>19.712</v>
+        <v>14.928</v>
       </c>
       <c r="C282" t="n">
-        <v>406251</v>
+        <v>437501</v>
       </c>
     </row>
     <row r="283">
@@ -3541,10 +3541,10 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>19.744</v>
+        <v>14.496</v>
       </c>
       <c r="C283" t="n">
-        <v>406251</v>
+        <v>437501</v>
       </c>
     </row>
     <row r="284">
@@ -3552,10 +3552,10 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>4.648</v>
+        <v>4.928</v>
       </c>
       <c r="C284" t="n">
-        <v>406251</v>
+        <v>437501</v>
       </c>
     </row>
     <row r="285">
@@ -3563,10 +3563,10 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>14.976</v>
+        <v>13.496</v>
       </c>
       <c r="C285" t="n">
-        <v>406251</v>
+        <v>437501</v>
       </c>
     </row>
     <row r="286">
@@ -3574,10 +3574,10 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>19.648</v>
+        <v>4.904</v>
       </c>
       <c r="C286" t="n">
-        <v>406251</v>
+        <v>437501</v>
       </c>
     </row>
     <row r="287">
@@ -3585,10 +3585,10 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>19.36</v>
+        <v>3.512</v>
       </c>
       <c r="C287" t="n">
-        <v>406251</v>
+        <v>437501</v>
       </c>
     </row>
     <row r="288">
@@ -3596,10 +3596,10 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>4.232</v>
+        <v>14.928</v>
       </c>
       <c r="C288" t="n">
-        <v>406251</v>
+        <v>437501</v>
       </c>
     </row>
     <row r="289">
@@ -3607,10 +3607,10 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>14.952</v>
+        <v>19.12</v>
       </c>
       <c r="C289" t="n">
-        <v>406251</v>
+        <v>437501</v>
       </c>
     </row>
     <row r="290">
@@ -3618,10 +3618,10 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>19.424</v>
+        <v>19.44</v>
       </c>
       <c r="C290" t="n">
-        <v>406251</v>
+        <v>437501</v>
       </c>
     </row>
     <row r="291">
@@ -3629,10 +3629,10 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>19.68</v>
+        <v>19.4</v>
       </c>
       <c r="C291" t="n">
-        <v>406251</v>
+        <v>437501</v>
       </c>
     </row>
     <row r="292">
@@ -3640,10 +3640,10 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>19.84</v>
+        <v>19.672</v>
       </c>
       <c r="C292" t="n">
-        <v>406251</v>
+        <v>437501</v>
       </c>
     </row>
     <row r="293">
@@ -3651,10 +3651,10 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>19.968</v>
+        <v>9.568</v>
       </c>
       <c r="C293" t="n">
-        <v>406251</v>
+        <v>437501</v>
       </c>
     </row>
     <row r="294">
@@ -3662,10 +3662,10 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>9.968</v>
+        <v>9.928000000000001</v>
       </c>
       <c r="C294" t="n">
-        <v>406251</v>
+        <v>437501</v>
       </c>
     </row>
     <row r="295">
@@ -3673,10 +3673,10 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>9.976000000000001</v>
+        <v>314.904</v>
       </c>
       <c r="C295" t="n">
-        <v>406251</v>
+        <v>437501</v>
       </c>
     </row>
     <row r="296">
@@ -3684,10 +3684,10 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>4.68</v>
+        <v>4.568</v>
       </c>
       <c r="C296" t="n">
-        <v>437501</v>
+        <v>500001</v>
       </c>
     </row>
     <row r="297">
@@ -3695,10 +3695,10 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>14.976</v>
+        <v>5.376</v>
       </c>
       <c r="C297" t="n">
-        <v>437501</v>
+        <v>500001</v>
       </c>
     </row>
     <row r="298">
@@ -3706,10 +3706,10 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>14.816</v>
+        <v>4.656</v>
       </c>
       <c r="C298" t="n">
-        <v>437501</v>
+        <v>500001</v>
       </c>
     </row>
     <row r="299">
@@ -3717,10 +3717,10 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>4.976</v>
+        <v>10.336</v>
       </c>
       <c r="C299" t="n">
-        <v>437501</v>
+        <v>500001</v>
       </c>
     </row>
     <row r="300">
@@ -3728,10 +3728,10 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>14.456</v>
+        <v>4.752</v>
       </c>
       <c r="C300" t="n">
-        <v>437501</v>
+        <v>500001</v>
       </c>
     </row>
     <row r="301">
@@ -3739,10 +3739,10 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>4.968</v>
+        <v>12.832</v>
       </c>
       <c r="C301" t="n">
-        <v>437501</v>
+        <v>500001</v>
       </c>
     </row>
     <row r="302">
@@ -3750,10 +3750,10 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>4.424</v>
+        <v>4.744</v>
       </c>
       <c r="C302" t="n">
-        <v>437501</v>
+        <v>500001</v>
       </c>
     </row>
     <row r="303">
@@ -3761,10 +3761,10 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>14.976</v>
+        <v>14.144</v>
       </c>
       <c r="C303" t="n">
-        <v>437501</v>
+        <v>500001</v>
       </c>
     </row>
     <row r="304">
@@ -3772,10 +3772,10 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>19.68</v>
+        <v>4.92</v>
       </c>
       <c r="C304" t="n">
-        <v>437501</v>
+        <v>500001</v>
       </c>
     </row>
     <row r="305">
@@ -3783,10 +3783,10 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>19.808</v>
+        <v>14.824</v>
       </c>
       <c r="C305" t="n">
-        <v>437501</v>
+        <v>500001</v>
       </c>
     </row>
     <row r="306">
@@ -3794,10 +3794,10 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>19.776</v>
+        <v>4.92</v>
       </c>
       <c r="C306" t="n">
-        <v>437501</v>
+        <v>500001</v>
       </c>
     </row>
     <row r="307">
@@ -3805,10 +3805,10 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>19.88</v>
+        <v>39.904</v>
       </c>
       <c r="C307" t="n">
-        <v>437501</v>
+        <v>500001</v>
       </c>
     </row>
     <row r="308">
@@ -3816,10 +3816,10 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>9.872</v>
+        <v>19.832</v>
       </c>
       <c r="C308" t="n">
-        <v>437501</v>
+        <v>500001</v>
       </c>
     </row>
     <row r="309">
@@ -3827,10 +3827,10 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>9.976000000000001</v>
+        <v>18.696</v>
       </c>
       <c r="C309" t="n">
-        <v>437501</v>
+        <v>500001</v>
       </c>
     </row>
     <row r="310">
@@ -3838,10 +3838,10 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>314.968</v>
+        <v>18.144</v>
       </c>
       <c r="C310" t="n">
-        <v>437501</v>
+        <v>500001</v>
       </c>
     </row>
     <row r="311">
@@ -3849,7 +3849,7 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>4.856</v>
+        <v>17.872</v>
       </c>
       <c r="C311" t="n">
         <v>500001</v>
@@ -3860,7 +3860,7 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>11.456</v>
+        <v>19.24</v>
       </c>
       <c r="C312" t="n">
         <v>500001</v>
@@ -3871,7 +3871,7 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>4.88</v>
+        <v>19.024</v>
       </c>
       <c r="C313" t="n">
         <v>500001</v>
@@ -3882,10 +3882,10 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>13.336</v>
+        <v>19.632</v>
       </c>
       <c r="C314" t="n">
-        <v>500001</v>
+        <v>531251</v>
       </c>
     </row>
     <row r="315">
@@ -3893,10 +3893,10 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>4.904</v>
+        <v>19.192</v>
       </c>
       <c r="C315" t="n">
-        <v>500001</v>
+        <v>531251</v>
       </c>
     </row>
     <row r="316">
@@ -3904,10 +3904,10 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>14.232</v>
+        <v>19.288</v>
       </c>
       <c r="C316" t="n">
-        <v>500001</v>
+        <v>531251</v>
       </c>
     </row>
     <row r="317">
@@ -3915,10 +3915,10 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>4.904</v>
+        <v>4.128</v>
       </c>
       <c r="C317" t="n">
-        <v>500001</v>
+        <v>531251</v>
       </c>
     </row>
     <row r="318">
@@ -3926,10 +3926,10 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>14.712</v>
+        <v>14.928</v>
       </c>
       <c r="C318" t="n">
-        <v>500001</v>
+        <v>531251</v>
       </c>
     </row>
     <row r="319">
@@ -3937,10 +3937,10 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>4.968</v>
+        <v>19.032</v>
       </c>
       <c r="C319" t="n">
-        <v>500001</v>
+        <v>531251</v>
       </c>
     </row>
     <row r="320">
@@ -3948,10 +3948,10 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>14.968</v>
+        <v>18.256</v>
       </c>
       <c r="C320" t="n">
-        <v>500001</v>
+        <v>531251</v>
       </c>
     </row>
     <row r="321">
@@ -3959,10 +3959,10 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>4.968</v>
+        <v>3.072</v>
       </c>
       <c r="C321" t="n">
-        <v>500001</v>
+        <v>531251</v>
       </c>
     </row>
     <row r="322">
@@ -3970,10 +3970,10 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>39.968</v>
+        <v>14.856</v>
       </c>
       <c r="C322" t="n">
-        <v>500001</v>
+        <v>531251</v>
       </c>
     </row>
     <row r="323">
@@ -3981,10 +3981,10 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>19.936</v>
+        <v>18.536</v>
       </c>
       <c r="C323" t="n">
-        <v>500001</v>
+        <v>531251</v>
       </c>
     </row>
     <row r="324">
@@ -3992,10 +3992,10 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>19.552</v>
+        <v>19.128</v>
       </c>
       <c r="C324" t="n">
-        <v>500001</v>
+        <v>531251</v>
       </c>
     </row>
     <row r="325">
@@ -4003,10 +4003,10 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>19.36</v>
+        <v>19.576</v>
       </c>
       <c r="C325" t="n">
-        <v>500001</v>
+        <v>531251</v>
       </c>
     </row>
     <row r="326">
@@ -4014,10 +4014,10 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>19.2</v>
+        <v>19.912</v>
       </c>
       <c r="C326" t="n">
-        <v>500001</v>
+        <v>531251</v>
       </c>
     </row>
     <row r="327">
@@ -4025,10 +4025,10 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>19.72</v>
+        <v>9.904</v>
       </c>
       <c r="C327" t="n">
-        <v>500001</v>
+        <v>531251</v>
       </c>
     </row>
     <row r="328">
@@ -4036,10 +4036,10 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>19.648</v>
+        <v>9.928000000000001</v>
       </c>
       <c r="C328" t="n">
-        <v>500001</v>
+        <v>531251</v>
       </c>
     </row>
     <row r="329">
@@ -4047,10 +4047,10 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>19.872</v>
+        <v>4.568</v>
       </c>
       <c r="C329" t="n">
-        <v>531251</v>
+        <v>562501</v>
       </c>
     </row>
     <row r="330">
@@ -4058,10 +4058,10 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>19.712</v>
+        <v>14.928</v>
       </c>
       <c r="C330" t="n">
-        <v>531251</v>
+        <v>562501</v>
       </c>
     </row>
     <row r="331">
@@ -4069,10 +4069,10 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>19.744</v>
+        <v>14.496</v>
       </c>
       <c r="C331" t="n">
-        <v>531251</v>
+        <v>562501</v>
       </c>
     </row>
     <row r="332">
@@ -4080,10 +4080,10 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>4.648</v>
+        <v>4.928</v>
       </c>
       <c r="C332" t="n">
-        <v>531251</v>
+        <v>562501</v>
       </c>
     </row>
     <row r="333">
@@ -4091,10 +4091,10 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>14.976</v>
+        <v>13.496</v>
       </c>
       <c r="C333" t="n">
-        <v>531251</v>
+        <v>562501</v>
       </c>
     </row>
     <row r="334">
@@ -4102,10 +4102,10 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>19.648</v>
+        <v>4.904</v>
       </c>
       <c r="C334" t="n">
-        <v>531251</v>
+        <v>562501</v>
       </c>
     </row>
     <row r="335">
@@ -4113,10 +4113,10 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>19.36</v>
+        <v>3.512</v>
       </c>
       <c r="C335" t="n">
-        <v>531251</v>
+        <v>562501</v>
       </c>
     </row>
     <row r="336">
@@ -4124,10 +4124,10 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>4.232</v>
+        <v>14.928</v>
       </c>
       <c r="C336" t="n">
-        <v>531251</v>
+        <v>562501</v>
       </c>
     </row>
     <row r="337">
@@ -4135,10 +4135,10 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>14.952</v>
+        <v>19.12</v>
       </c>
       <c r="C337" t="n">
-        <v>531251</v>
+        <v>562501</v>
       </c>
     </row>
     <row r="338">
@@ -4146,10 +4146,10 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>19.424</v>
+        <v>19.44</v>
       </c>
       <c r="C338" t="n">
-        <v>531251</v>
+        <v>562501</v>
       </c>
     </row>
     <row r="339">
@@ -4157,10 +4157,10 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>19.68</v>
+        <v>19.4</v>
       </c>
       <c r="C339" t="n">
-        <v>531251</v>
+        <v>562501</v>
       </c>
     </row>
     <row r="340">
@@ -4168,10 +4168,10 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>19.84</v>
+        <v>19.672</v>
       </c>
       <c r="C340" t="n">
-        <v>531251</v>
+        <v>562501</v>
       </c>
     </row>
     <row r="341">
@@ -4179,10 +4179,10 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>19.968</v>
+        <v>9.568</v>
       </c>
       <c r="C341" t="n">
-        <v>531251</v>
+        <v>562501</v>
       </c>
     </row>
     <row r="342">
@@ -4190,10 +4190,10 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>9.968</v>
+        <v>9.928000000000001</v>
       </c>
       <c r="C342" t="n">
-        <v>531251</v>
+        <v>562501</v>
       </c>
     </row>
     <row r="343">
@@ -4201,10 +4201,10 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>9.976000000000001</v>
+        <v>314.904</v>
       </c>
       <c r="C343" t="n">
-        <v>531251</v>
+        <v>562501</v>
       </c>
     </row>
     <row r="344">
@@ -4212,10 +4212,10 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>4.68</v>
+        <v>4.568</v>
       </c>
       <c r="C344" t="n">
-        <v>562501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="345">
@@ -4223,10 +4223,10 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>14.976</v>
+        <v>5.376</v>
       </c>
       <c r="C345" t="n">
-        <v>562501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="346">
@@ -4234,10 +4234,10 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>14.816</v>
+        <v>4.656</v>
       </c>
       <c r="C346" t="n">
-        <v>562501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="347">
@@ -4245,10 +4245,10 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>4.976</v>
+        <v>10.336</v>
       </c>
       <c r="C347" t="n">
-        <v>562501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="348">
@@ -4256,10 +4256,10 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>14.456</v>
+        <v>4.752</v>
       </c>
       <c r="C348" t="n">
-        <v>562501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="349">
@@ -4267,10 +4267,10 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>4.968</v>
+        <v>12.832</v>
       </c>
       <c r="C349" t="n">
-        <v>562501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="350">
@@ -4278,10 +4278,10 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>4.424</v>
+        <v>4.744</v>
       </c>
       <c r="C350" t="n">
-        <v>562501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="351">
@@ -4289,10 +4289,10 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>14.976</v>
+        <v>14.144</v>
       </c>
       <c r="C351" t="n">
-        <v>562501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="352">
@@ -4300,10 +4300,10 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>19.68</v>
+        <v>4.92</v>
       </c>
       <c r="C352" t="n">
-        <v>562501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="353">
@@ -4311,10 +4311,10 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>19.808</v>
+        <v>14.824</v>
       </c>
       <c r="C353" t="n">
-        <v>562501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="354">
@@ -4322,10 +4322,10 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>19.776</v>
+        <v>4.92</v>
       </c>
       <c r="C354" t="n">
-        <v>562501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="355">
@@ -4333,10 +4333,10 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>19.88</v>
+        <v>39.904</v>
       </c>
       <c r="C355" t="n">
-        <v>562501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="356">
@@ -4344,10 +4344,10 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>9.872</v>
+        <v>19.832</v>
       </c>
       <c r="C356" t="n">
-        <v>562501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="357">
@@ -4355,10 +4355,10 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>9.976000000000001</v>
+        <v>18.696</v>
       </c>
       <c r="C357" t="n">
-        <v>562501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="358">
@@ -4366,10 +4366,10 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>314.968</v>
+        <v>18.144</v>
       </c>
       <c r="C358" t="n">
-        <v>562501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="359">
@@ -4377,7 +4377,7 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>4.856</v>
+        <v>17.872</v>
       </c>
       <c r="C359" t="n">
         <v>625001</v>
@@ -4388,7 +4388,7 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>11.456</v>
+        <v>19.24</v>
       </c>
       <c r="C360" t="n">
         <v>625001</v>
@@ -4399,7 +4399,7 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>4.88</v>
+        <v>19.024</v>
       </c>
       <c r="C361" t="n">
         <v>625001</v>
@@ -4410,10 +4410,10 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>13.336</v>
+        <v>19.632</v>
       </c>
       <c r="C362" t="n">
-        <v>625001</v>
+        <v>656251</v>
       </c>
     </row>
     <row r="363">
@@ -4421,10 +4421,10 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>4.904</v>
+        <v>19.192</v>
       </c>
       <c r="C363" t="n">
-        <v>625001</v>
+        <v>656251</v>
       </c>
     </row>
     <row r="364">
@@ -4432,10 +4432,10 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>14.232</v>
+        <v>19.288</v>
       </c>
       <c r="C364" t="n">
-        <v>625001</v>
+        <v>656251</v>
       </c>
     </row>
     <row r="365">
@@ -4443,10 +4443,10 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>4.904</v>
+        <v>4.128</v>
       </c>
       <c r="C365" t="n">
-        <v>625001</v>
+        <v>656251</v>
       </c>
     </row>
     <row r="366">
@@ -4454,10 +4454,10 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>14.712</v>
+        <v>14.928</v>
       </c>
       <c r="C366" t="n">
-        <v>625001</v>
+        <v>656251</v>
       </c>
     </row>
     <row r="367">
@@ -4465,10 +4465,10 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>4.968</v>
+        <v>19.032</v>
       </c>
       <c r="C367" t="n">
-        <v>625001</v>
+        <v>656251</v>
       </c>
     </row>
     <row r="368">
@@ -4476,10 +4476,10 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>14.968</v>
+        <v>18.256</v>
       </c>
       <c r="C368" t="n">
-        <v>625001</v>
+        <v>656251</v>
       </c>
     </row>
     <row r="369">
@@ -4487,10 +4487,10 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>4.968</v>
+        <v>3.072</v>
       </c>
       <c r="C369" t="n">
-        <v>625001</v>
+        <v>656251</v>
       </c>
     </row>
     <row r="370">
@@ -4498,10 +4498,10 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>39.968</v>
+        <v>14.856</v>
       </c>
       <c r="C370" t="n">
-        <v>625001</v>
+        <v>656251</v>
       </c>
     </row>
     <row r="371">
@@ -4509,10 +4509,10 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>19.936</v>
+        <v>18.536</v>
       </c>
       <c r="C371" t="n">
-        <v>625001</v>
+        <v>656251</v>
       </c>
     </row>
     <row r="372">
@@ -4520,10 +4520,10 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>19.552</v>
+        <v>19.128</v>
       </c>
       <c r="C372" t="n">
-        <v>625001</v>
+        <v>656251</v>
       </c>
     </row>
     <row r="373">
@@ -4531,10 +4531,10 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>19.36</v>
+        <v>19.576</v>
       </c>
       <c r="C373" t="n">
-        <v>625001</v>
+        <v>656251</v>
       </c>
     </row>
     <row r="374">
@@ -4542,10 +4542,10 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>19.2</v>
+        <v>19.912</v>
       </c>
       <c r="C374" t="n">
-        <v>625001</v>
+        <v>656251</v>
       </c>
     </row>
     <row r="375">
@@ -4553,10 +4553,10 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>19.72</v>
+        <v>9.904</v>
       </c>
       <c r="C375" t="n">
-        <v>625001</v>
+        <v>656251</v>
       </c>
     </row>
     <row r="376">
@@ -4564,10 +4564,10 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>19.648</v>
+        <v>9.928000000000001</v>
       </c>
       <c r="C376" t="n">
-        <v>625001</v>
+        <v>656251</v>
       </c>
     </row>
     <row r="377">
@@ -4575,10 +4575,10 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>19.872</v>
+        <v>4.568</v>
       </c>
       <c r="C377" t="n">
-        <v>656251</v>
+        <v>687501</v>
       </c>
     </row>
     <row r="378">
@@ -4586,10 +4586,10 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>19.712</v>
+        <v>14.928</v>
       </c>
       <c r="C378" t="n">
-        <v>656251</v>
+        <v>687501</v>
       </c>
     </row>
     <row r="379">
@@ -4597,10 +4597,10 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>19.744</v>
+        <v>14.496</v>
       </c>
       <c r="C379" t="n">
-        <v>656251</v>
+        <v>687501</v>
       </c>
     </row>
     <row r="380">
@@ -4608,10 +4608,10 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>4.648</v>
+        <v>4.928</v>
       </c>
       <c r="C380" t="n">
-        <v>656251</v>
+        <v>687501</v>
       </c>
     </row>
     <row r="381">
@@ -4619,10 +4619,10 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>14.976</v>
+        <v>13.496</v>
       </c>
       <c r="C381" t="n">
-        <v>656251</v>
+        <v>687501</v>
       </c>
     </row>
     <row r="382">
@@ -4630,10 +4630,10 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>19.648</v>
+        <v>4.904</v>
       </c>
       <c r="C382" t="n">
-        <v>656251</v>
+        <v>687501</v>
       </c>
     </row>
     <row r="383">
@@ -4641,10 +4641,10 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>19.36</v>
+        <v>3.512</v>
       </c>
       <c r="C383" t="n">
-        <v>656251</v>
+        <v>687501</v>
       </c>
     </row>
     <row r="384">
@@ -4652,10 +4652,10 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>4.232</v>
+        <v>14.928</v>
       </c>
       <c r="C384" t="n">
-        <v>656251</v>
+        <v>687501</v>
       </c>
     </row>
     <row r="385">
@@ -4663,10 +4663,10 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>14.952</v>
+        <v>19.12</v>
       </c>
       <c r="C385" t="n">
-        <v>656251</v>
+        <v>687501</v>
       </c>
     </row>
     <row r="386">
@@ -4674,10 +4674,10 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>19.424</v>
+        <v>19.44</v>
       </c>
       <c r="C386" t="n">
-        <v>656251</v>
+        <v>687501</v>
       </c>
     </row>
     <row r="387">
@@ -4685,10 +4685,10 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>19.68</v>
+        <v>19.4</v>
       </c>
       <c r="C387" t="n">
-        <v>656251</v>
+        <v>687501</v>
       </c>
     </row>
     <row r="388">
@@ -4696,10 +4696,10 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>19.84</v>
+        <v>19.672</v>
       </c>
       <c r="C388" t="n">
-        <v>656251</v>
+        <v>687501</v>
       </c>
     </row>
     <row r="389">
@@ -4707,10 +4707,10 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>19.968</v>
+        <v>9.568</v>
       </c>
       <c r="C389" t="n">
-        <v>656251</v>
+        <v>687501</v>
       </c>
     </row>
     <row r="390">
@@ -4718,10 +4718,10 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>9.968</v>
+        <v>9.928000000000001</v>
       </c>
       <c r="C390" t="n">
-        <v>656251</v>
+        <v>687501</v>
       </c>
     </row>
     <row r="391">
@@ -4729,10 +4729,10 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>9.976000000000001</v>
+        <v>314.904</v>
       </c>
       <c r="C391" t="n">
-        <v>656251</v>
+        <v>687501</v>
       </c>
     </row>
     <row r="392">
@@ -4740,10 +4740,10 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>4.68</v>
+        <v>4.568</v>
       </c>
       <c r="C392" t="n">
-        <v>687501</v>
+        <v>750001</v>
       </c>
     </row>
     <row r="393">
@@ -4751,10 +4751,10 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>14.976</v>
+        <v>5.376</v>
       </c>
       <c r="C393" t="n">
-        <v>687501</v>
+        <v>750001</v>
       </c>
     </row>
     <row r="394">
@@ -4762,10 +4762,10 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>14.816</v>
+        <v>4.656</v>
       </c>
       <c r="C394" t="n">
-        <v>687501</v>
+        <v>750001</v>
       </c>
     </row>
     <row r="395">
@@ -4773,10 +4773,10 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>4.976</v>
+        <v>10.336</v>
       </c>
       <c r="C395" t="n">
-        <v>687501</v>
+        <v>750001</v>
       </c>
     </row>
     <row r="396">
@@ -4784,10 +4784,10 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>14.456</v>
+        <v>4.752</v>
       </c>
       <c r="C396" t="n">
-        <v>687501</v>
+        <v>750001</v>
       </c>
     </row>
     <row r="397">
@@ -4795,10 +4795,10 @@
         <v>395</v>
       </c>
       <c r="B397" t="n">
-        <v>4.968</v>
+        <v>12.832</v>
       </c>
       <c r="C397" t="n">
-        <v>687501</v>
+        <v>750001</v>
       </c>
     </row>
     <row r="398">
@@ -4806,10 +4806,10 @@
         <v>396</v>
       </c>
       <c r="B398" t="n">
-        <v>4.424</v>
+        <v>4.744</v>
       </c>
       <c r="C398" t="n">
-        <v>687501</v>
+        <v>750001</v>
       </c>
     </row>
     <row r="399">
@@ -4817,10 +4817,10 @@
         <v>397</v>
       </c>
       <c r="B399" t="n">
-        <v>14.976</v>
+        <v>14.144</v>
       </c>
       <c r="C399" t="n">
-        <v>687501</v>
+        <v>750001</v>
       </c>
     </row>
     <row r="400">
@@ -4828,10 +4828,10 @@
         <v>398</v>
       </c>
       <c r="B400" t="n">
-        <v>19.68</v>
+        <v>4.92</v>
       </c>
       <c r="C400" t="n">
-        <v>687501</v>
+        <v>750001</v>
       </c>
     </row>
     <row r="401">
@@ -4839,10 +4839,10 @@
         <v>399</v>
       </c>
       <c r="B401" t="n">
-        <v>19.808</v>
+        <v>14.824</v>
       </c>
       <c r="C401" t="n">
-        <v>687501</v>
+        <v>750001</v>
       </c>
     </row>
     <row r="402">
@@ -4850,10 +4850,10 @@
         <v>400</v>
       </c>
       <c r="B402" t="n">
-        <v>19.776</v>
+        <v>4.92</v>
       </c>
       <c r="C402" t="n">
-        <v>687501</v>
+        <v>750001</v>
       </c>
     </row>
     <row r="403">
@@ -4861,10 +4861,10 @@
         <v>401</v>
       </c>
       <c r="B403" t="n">
-        <v>19.88</v>
+        <v>39.904</v>
       </c>
       <c r="C403" t="n">
-        <v>687501</v>
+        <v>750001</v>
       </c>
     </row>
     <row r="404">
@@ -4872,10 +4872,10 @@
         <v>402</v>
       </c>
       <c r="B404" t="n">
-        <v>9.872</v>
+        <v>19.832</v>
       </c>
       <c r="C404" t="n">
-        <v>687501</v>
+        <v>750001</v>
       </c>
     </row>
     <row r="405">
@@ -4883,10 +4883,10 @@
         <v>403</v>
       </c>
       <c r="B405" t="n">
-        <v>9.976000000000001</v>
+        <v>18.696</v>
       </c>
       <c r="C405" t="n">
-        <v>687501</v>
+        <v>750001</v>
       </c>
     </row>
     <row r="406">
@@ -4894,10 +4894,10 @@
         <v>404</v>
       </c>
       <c r="B406" t="n">
-        <v>314.968</v>
+        <v>18.144</v>
       </c>
       <c r="C406" t="n">
-        <v>687501</v>
+        <v>750001</v>
       </c>
     </row>
     <row r="407">
@@ -4905,7 +4905,7 @@
         <v>405</v>
       </c>
       <c r="B407" t="n">
-        <v>4.856</v>
+        <v>17.872</v>
       </c>
       <c r="C407" t="n">
         <v>750001</v>
@@ -4916,7 +4916,7 @@
         <v>406</v>
       </c>
       <c r="B408" t="n">
-        <v>11.456</v>
+        <v>19.24</v>
       </c>
       <c r="C408" t="n">
         <v>750001</v>
@@ -4927,7 +4927,7 @@
         <v>407</v>
       </c>
       <c r="B409" t="n">
-        <v>4.88</v>
+        <v>19.024</v>
       </c>
       <c r="C409" t="n">
         <v>750001</v>
@@ -4938,10 +4938,10 @@
         <v>408</v>
       </c>
       <c r="B410" t="n">
-        <v>13.336</v>
+        <v>19.632</v>
       </c>
       <c r="C410" t="n">
-        <v>750001</v>
+        <v>781251</v>
       </c>
     </row>
     <row r="411">
@@ -4949,10 +4949,10 @@
         <v>409</v>
       </c>
       <c r="B411" t="n">
-        <v>4.904</v>
+        <v>19.192</v>
       </c>
       <c r="C411" t="n">
-        <v>750001</v>
+        <v>781251</v>
       </c>
     </row>
     <row r="412">
@@ -4960,10 +4960,10 @@
         <v>410</v>
       </c>
       <c r="B412" t="n">
-        <v>14.232</v>
+        <v>19.288</v>
       </c>
       <c r="C412" t="n">
-        <v>750001</v>
+        <v>781251</v>
       </c>
     </row>
     <row r="413">
@@ -4971,10 +4971,10 @@
         <v>411</v>
       </c>
       <c r="B413" t="n">
-        <v>4.904</v>
+        <v>4.128</v>
       </c>
       <c r="C413" t="n">
-        <v>750001</v>
+        <v>781251</v>
       </c>
     </row>
     <row r="414">
@@ -4982,10 +4982,10 @@
         <v>412</v>
       </c>
       <c r="B414" t="n">
-        <v>14.712</v>
+        <v>14.928</v>
       </c>
       <c r="C414" t="n">
-        <v>750001</v>
+        <v>781251</v>
       </c>
     </row>
     <row r="415">
@@ -4993,10 +4993,10 @@
         <v>413</v>
       </c>
       <c r="B415" t="n">
-        <v>4.968</v>
+        <v>19.032</v>
       </c>
       <c r="C415" t="n">
-        <v>750001</v>
+        <v>781251</v>
       </c>
     </row>
     <row r="416">
@@ -5004,10 +5004,10 @@
         <v>414</v>
       </c>
       <c r="B416" t="n">
-        <v>14.968</v>
+        <v>18.256</v>
       </c>
       <c r="C416" t="n">
-        <v>750001</v>
+        <v>781251</v>
       </c>
     </row>
     <row r="417">
@@ -5015,10 +5015,10 @@
         <v>415</v>
       </c>
       <c r="B417" t="n">
-        <v>4.968</v>
+        <v>3.072</v>
       </c>
       <c r="C417" t="n">
-        <v>750001</v>
+        <v>781251</v>
       </c>
     </row>
     <row r="418">
@@ -5026,10 +5026,10 @@
         <v>416</v>
       </c>
       <c r="B418" t="n">
-        <v>39.968</v>
+        <v>14.856</v>
       </c>
       <c r="C418" t="n">
-        <v>750001</v>
+        <v>781251</v>
       </c>
     </row>
     <row r="419">
@@ -5037,10 +5037,10 @@
         <v>417</v>
       </c>
       <c r="B419" t="n">
-        <v>19.936</v>
+        <v>18.536</v>
       </c>
       <c r="C419" t="n">
-        <v>750001</v>
+        <v>781251</v>
       </c>
     </row>
     <row r="420">
@@ -5048,10 +5048,10 @@
         <v>418</v>
       </c>
       <c r="B420" t="n">
-        <v>19.552</v>
+        <v>19.128</v>
       </c>
       <c r="C420" t="n">
-        <v>750001</v>
+        <v>781251</v>
       </c>
     </row>
     <row r="421">
@@ -5059,10 +5059,10 @@
         <v>419</v>
       </c>
       <c r="B421" t="n">
-        <v>19.36</v>
+        <v>19.576</v>
       </c>
       <c r="C421" t="n">
-        <v>750001</v>
+        <v>781251</v>
       </c>
     </row>
     <row r="422">
@@ -5070,10 +5070,10 @@
         <v>420</v>
       </c>
       <c r="B422" t="n">
-        <v>19.2</v>
+        <v>19.912</v>
       </c>
       <c r="C422" t="n">
-        <v>750001</v>
+        <v>781251</v>
       </c>
     </row>
     <row r="423">
@@ -5081,10 +5081,10 @@
         <v>421</v>
       </c>
       <c r="B423" t="n">
-        <v>19.72</v>
+        <v>9.904</v>
       </c>
       <c r="C423" t="n">
-        <v>750001</v>
+        <v>781251</v>
       </c>
     </row>
     <row r="424">
@@ -5092,10 +5092,10 @@
         <v>422</v>
       </c>
       <c r="B424" t="n">
-        <v>19.648</v>
+        <v>9.928000000000001</v>
       </c>
       <c r="C424" t="n">
-        <v>750001</v>
+        <v>781251</v>
       </c>
     </row>
     <row r="425">
@@ -5103,10 +5103,10 @@
         <v>423</v>
       </c>
       <c r="B425" t="n">
-        <v>19.872</v>
+        <v>4.568</v>
       </c>
       <c r="C425" t="n">
-        <v>781251</v>
+        <v>812501</v>
       </c>
     </row>
     <row r="426">
@@ -5114,10 +5114,10 @@
         <v>424</v>
       </c>
       <c r="B426" t="n">
-        <v>19.712</v>
+        <v>14.928</v>
       </c>
       <c r="C426" t="n">
-        <v>781251</v>
+        <v>812501</v>
       </c>
     </row>
     <row r="427">
@@ -5125,10 +5125,10 @@
         <v>425</v>
       </c>
       <c r="B427" t="n">
-        <v>19.744</v>
+        <v>14.496</v>
       </c>
       <c r="C427" t="n">
-        <v>781251</v>
+        <v>812501</v>
       </c>
     </row>
     <row r="428">
@@ -5136,10 +5136,10 @@
         <v>426</v>
       </c>
       <c r="B428" t="n">
-        <v>4.648</v>
+        <v>4.928</v>
       </c>
       <c r="C428" t="n">
-        <v>781251</v>
+        <v>812501</v>
       </c>
     </row>
     <row r="429">
@@ -5147,10 +5147,10 @@
         <v>427</v>
       </c>
       <c r="B429" t="n">
-        <v>14.976</v>
+        <v>13.496</v>
       </c>
       <c r="C429" t="n">
-        <v>781251</v>
+        <v>812501</v>
       </c>
     </row>
     <row r="430">
@@ -5158,10 +5158,10 @@
         <v>428</v>
       </c>
       <c r="B430" t="n">
-        <v>19.648</v>
+        <v>4.904</v>
       </c>
       <c r="C430" t="n">
-        <v>781251</v>
+        <v>812501</v>
       </c>
     </row>
     <row r="431">
@@ -5169,10 +5169,10 @@
         <v>429</v>
       </c>
       <c r="B431" t="n">
-        <v>19.36</v>
+        <v>3.512</v>
       </c>
       <c r="C431" t="n">
-        <v>781251</v>
+        <v>812501</v>
       </c>
     </row>
     <row r="432">
@@ -5180,10 +5180,10 @@
         <v>430</v>
       </c>
       <c r="B432" t="n">
-        <v>4.232</v>
+        <v>14.928</v>
       </c>
       <c r="C432" t="n">
-        <v>781251</v>
+        <v>812501</v>
       </c>
     </row>
     <row r="433">
@@ -5191,10 +5191,10 @@
         <v>431</v>
       </c>
       <c r="B433" t="n">
-        <v>14.952</v>
+        <v>19.12</v>
       </c>
       <c r="C433" t="n">
-        <v>781251</v>
+        <v>812501</v>
       </c>
     </row>
     <row r="434">
@@ -5202,10 +5202,10 @@
         <v>432</v>
       </c>
       <c r="B434" t="n">
-        <v>19.424</v>
+        <v>19.44</v>
       </c>
       <c r="C434" t="n">
-        <v>781251</v>
+        <v>812501</v>
       </c>
     </row>
     <row r="435">
@@ -5213,10 +5213,10 @@
         <v>433</v>
       </c>
       <c r="B435" t="n">
-        <v>19.68</v>
+        <v>19.4</v>
       </c>
       <c r="C435" t="n">
-        <v>781251</v>
+        <v>812501</v>
       </c>
     </row>
     <row r="436">
@@ -5224,10 +5224,10 @@
         <v>434</v>
       </c>
       <c r="B436" t="n">
-        <v>19.84</v>
+        <v>19.672</v>
       </c>
       <c r="C436" t="n">
-        <v>781251</v>
+        <v>812501</v>
       </c>
     </row>
     <row r="437">
@@ -5235,10 +5235,10 @@
         <v>435</v>
       </c>
       <c r="B437" t="n">
-        <v>19.968</v>
+        <v>9.568</v>
       </c>
       <c r="C437" t="n">
-        <v>781251</v>
+        <v>812501</v>
       </c>
     </row>
     <row r="438">
@@ -5246,10 +5246,10 @@
         <v>436</v>
       </c>
       <c r="B438" t="n">
-        <v>9.968</v>
+        <v>9.928000000000001</v>
       </c>
       <c r="C438" t="n">
-        <v>781251</v>
+        <v>812501</v>
       </c>
     </row>
     <row r="439">
@@ -5257,10 +5257,10 @@
         <v>437</v>
       </c>
       <c r="B439" t="n">
-        <v>9.976000000000001</v>
+        <v>314.904</v>
       </c>
       <c r="C439" t="n">
-        <v>781251</v>
+        <v>812501</v>
       </c>
     </row>
     <row r="440">
@@ -5268,10 +5268,10 @@
         <v>438</v>
       </c>
       <c r="B440" t="n">
-        <v>4.68</v>
+        <v>4.568</v>
       </c>
       <c r="C440" t="n">
-        <v>812501</v>
+        <v>875001</v>
       </c>
     </row>
     <row r="441">
@@ -5279,10 +5279,10 @@
         <v>439</v>
       </c>
       <c r="B441" t="n">
-        <v>14.976</v>
+        <v>5.376</v>
       </c>
       <c r="C441" t="n">
-        <v>812501</v>
+        <v>875001</v>
       </c>
     </row>
     <row r="442">
@@ -5290,10 +5290,10 @@
         <v>440</v>
       </c>
       <c r="B442" t="n">
-        <v>14.816</v>
+        <v>4.656</v>
       </c>
       <c r="C442" t="n">
-        <v>812501</v>
+        <v>875001</v>
       </c>
     </row>
     <row r="443">
@@ -5301,10 +5301,10 @@
         <v>441</v>
       </c>
       <c r="B443" t="n">
-        <v>4.976</v>
+        <v>10.336</v>
       </c>
       <c r="C443" t="n">
-        <v>812501</v>
+        <v>875001</v>
       </c>
     </row>
     <row r="444">
@@ -5312,10 +5312,10 @@
         <v>442</v>
       </c>
       <c r="B444" t="n">
-        <v>14.456</v>
+        <v>4.752</v>
       </c>
       <c r="C444" t="n">
-        <v>812501</v>
+        <v>875001</v>
       </c>
     </row>
     <row r="445">
@@ -5323,10 +5323,10 @@
         <v>443</v>
       </c>
       <c r="B445" t="n">
-        <v>4.968</v>
+        <v>12.832</v>
       </c>
       <c r="C445" t="n">
-        <v>812501</v>
+        <v>875001</v>
       </c>
     </row>
     <row r="446">
@@ -5334,10 +5334,10 @@
         <v>444</v>
       </c>
       <c r="B446" t="n">
-        <v>4.424</v>
+        <v>4.744</v>
       </c>
       <c r="C446" t="n">
-        <v>812501</v>
+        <v>875001</v>
       </c>
     </row>
     <row r="447">
@@ -5345,10 +5345,10 @@
         <v>445</v>
       </c>
       <c r="B447" t="n">
-        <v>14.976</v>
+        <v>14.144</v>
       </c>
       <c r="C447" t="n">
-        <v>812501</v>
+        <v>875001</v>
       </c>
     </row>
     <row r="448">
@@ -5356,10 +5356,10 @@
         <v>446</v>
       </c>
       <c r="B448" t="n">
-        <v>19.68</v>
+        <v>4.92</v>
       </c>
       <c r="C448" t="n">
-        <v>812501</v>
+        <v>875001</v>
       </c>
     </row>
     <row r="449">
@@ -5367,10 +5367,10 @@
         <v>447</v>
       </c>
       <c r="B449" t="n">
-        <v>19.808</v>
+        <v>14.824</v>
       </c>
       <c r="C449" t="n">
-        <v>812501</v>
+        <v>875001</v>
       </c>
     </row>
     <row r="450">
@@ -5378,10 +5378,10 @@
         <v>448</v>
       </c>
       <c r="B450" t="n">
-        <v>19.776</v>
+        <v>4.92</v>
       </c>
       <c r="C450" t="n">
-        <v>812501</v>
+        <v>875001</v>
       </c>
     </row>
     <row r="451">
@@ -5389,10 +5389,10 @@
         <v>449</v>
       </c>
       <c r="B451" t="n">
-        <v>19.88</v>
+        <v>39.904</v>
       </c>
       <c r="C451" t="n">
-        <v>812501</v>
+        <v>875001</v>
       </c>
     </row>
     <row r="452">
@@ -5400,10 +5400,10 @@
         <v>450</v>
       </c>
       <c r="B452" t="n">
-        <v>9.872</v>
+        <v>19.832</v>
       </c>
       <c r="C452" t="n">
-        <v>812501</v>
+        <v>875001</v>
       </c>
     </row>
     <row r="453">
@@ -5411,10 +5411,10 @@
         <v>451</v>
       </c>
       <c r="B453" t="n">
-        <v>9.976000000000001</v>
+        <v>18.696</v>
       </c>
       <c r="C453" t="n">
-        <v>812501</v>
+        <v>875001</v>
       </c>
     </row>
     <row r="454">
@@ -5422,10 +5422,10 @@
         <v>452</v>
       </c>
       <c r="B454" t="n">
-        <v>314.968</v>
+        <v>18.144</v>
       </c>
       <c r="C454" t="n">
-        <v>812501</v>
+        <v>875001</v>
       </c>
     </row>
     <row r="455">
@@ -5433,7 +5433,7 @@
         <v>453</v>
       </c>
       <c r="B455" t="n">
-        <v>4.856</v>
+        <v>17.872</v>
       </c>
       <c r="C455" t="n">
         <v>875001</v>
@@ -5444,7 +5444,7 @@
         <v>454</v>
       </c>
       <c r="B456" t="n">
-        <v>11.456</v>
+        <v>19.24</v>
       </c>
       <c r="C456" t="n">
         <v>875001</v>
@@ -5455,7 +5455,7 @@
         <v>455</v>
       </c>
       <c r="B457" t="n">
-        <v>4.88</v>
+        <v>19.024</v>
       </c>
       <c r="C457" t="n">
         <v>875001</v>
@@ -5466,10 +5466,10 @@
         <v>456</v>
       </c>
       <c r="B458" t="n">
-        <v>13.336</v>
+        <v>19.632</v>
       </c>
       <c r="C458" t="n">
-        <v>875001</v>
+        <v>906251</v>
       </c>
     </row>
     <row r="459">
@@ -5477,10 +5477,10 @@
         <v>457</v>
       </c>
       <c r="B459" t="n">
-        <v>4.904</v>
+        <v>19.192</v>
       </c>
       <c r="C459" t="n">
-        <v>875001</v>
+        <v>906251</v>
       </c>
     </row>
     <row r="460">
@@ -5488,10 +5488,10 @@
         <v>458</v>
       </c>
       <c r="B460" t="n">
-        <v>14.232</v>
+        <v>19.288</v>
       </c>
       <c r="C460" t="n">
-        <v>875001</v>
+        <v>906251</v>
       </c>
     </row>
     <row r="461">
@@ -5499,10 +5499,10 @@
         <v>459</v>
       </c>
       <c r="B461" t="n">
-        <v>4.904</v>
+        <v>4.128</v>
       </c>
       <c r="C461" t="n">
-        <v>875001</v>
+        <v>906251</v>
       </c>
     </row>
     <row r="462">
@@ -5510,10 +5510,10 @@
         <v>460</v>
       </c>
       <c r="B462" t="n">
-        <v>14.712</v>
+        <v>14.928</v>
       </c>
       <c r="C462" t="n">
-        <v>875001</v>
+        <v>906251</v>
       </c>
     </row>
     <row r="463">
@@ -5521,10 +5521,10 @@
         <v>461</v>
       </c>
       <c r="B463" t="n">
-        <v>4.968</v>
+        <v>19.032</v>
       </c>
       <c r="C463" t="n">
-        <v>875001</v>
+        <v>906251</v>
       </c>
     </row>
     <row r="464">
@@ -5532,10 +5532,10 @@
         <v>462</v>
       </c>
       <c r="B464" t="n">
-        <v>14.968</v>
+        <v>18.256</v>
       </c>
       <c r="C464" t="n">
-        <v>875001</v>
+        <v>906251</v>
       </c>
     </row>
     <row r="465">
@@ -5543,10 +5543,10 @@
         <v>463</v>
       </c>
       <c r="B465" t="n">
-        <v>4.968</v>
+        <v>3.072</v>
       </c>
       <c r="C465" t="n">
-        <v>875001</v>
+        <v>906251</v>
       </c>
     </row>
     <row r="466">
@@ -5554,10 +5554,10 @@
         <v>464</v>
       </c>
       <c r="B466" t="n">
-        <v>39.968</v>
+        <v>14.856</v>
       </c>
       <c r="C466" t="n">
-        <v>875001</v>
+        <v>906251</v>
       </c>
     </row>
     <row r="467">
@@ -5565,10 +5565,10 @@
         <v>465</v>
       </c>
       <c r="B467" t="n">
-        <v>19.936</v>
+        <v>18.536</v>
       </c>
       <c r="C467" t="n">
-        <v>875001</v>
+        <v>906251</v>
       </c>
     </row>
     <row r="468">
@@ -5576,10 +5576,10 @@
         <v>466</v>
       </c>
       <c r="B468" t="n">
-        <v>19.552</v>
+        <v>19.128</v>
       </c>
       <c r="C468" t="n">
-        <v>875001</v>
+        <v>906251</v>
       </c>
     </row>
     <row r="469">
@@ -5587,10 +5587,10 @@
         <v>467</v>
       </c>
       <c r="B469" t="n">
-        <v>19.36</v>
+        <v>19.576</v>
       </c>
       <c r="C469" t="n">
-        <v>875001</v>
+        <v>906251</v>
       </c>
     </row>
     <row r="470">
@@ -5598,10 +5598,10 @@
         <v>468</v>
       </c>
       <c r="B470" t="n">
-        <v>19.2</v>
+        <v>19.912</v>
       </c>
       <c r="C470" t="n">
-        <v>875001</v>
+        <v>906251</v>
       </c>
     </row>
     <row r="471">
@@ -5609,10 +5609,10 @@
         <v>469</v>
       </c>
       <c r="B471" t="n">
-        <v>19.72</v>
+        <v>9.904</v>
       </c>
       <c r="C471" t="n">
-        <v>875001</v>
+        <v>906251</v>
       </c>
     </row>
     <row r="472">
@@ -5620,10 +5620,10 @@
         <v>470</v>
       </c>
       <c r="B472" t="n">
-        <v>19.648</v>
+        <v>9.928000000000001</v>
       </c>
       <c r="C472" t="n">
-        <v>875001</v>
+        <v>906251</v>
       </c>
     </row>
     <row r="473">
@@ -5631,10 +5631,10 @@
         <v>471</v>
       </c>
       <c r="B473" t="n">
-        <v>19.872</v>
+        <v>4.568</v>
       </c>
       <c r="C473" t="n">
-        <v>906251</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="474">
@@ -5642,10 +5642,10 @@
         <v>472</v>
       </c>
       <c r="B474" t="n">
-        <v>19.712</v>
+        <v>14.928</v>
       </c>
       <c r="C474" t="n">
-        <v>906251</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="475">
@@ -5653,10 +5653,10 @@
         <v>473</v>
       </c>
       <c r="B475" t="n">
-        <v>19.744</v>
+        <v>14.496</v>
       </c>
       <c r="C475" t="n">
-        <v>906251</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="476">
@@ -5664,10 +5664,10 @@
         <v>474</v>
       </c>
       <c r="B476" t="n">
-        <v>4.648</v>
+        <v>4.928</v>
       </c>
       <c r="C476" t="n">
-        <v>906251</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="477">
@@ -5675,10 +5675,10 @@
         <v>475</v>
       </c>
       <c r="B477" t="n">
-        <v>14.976</v>
+        <v>13.496</v>
       </c>
       <c r="C477" t="n">
-        <v>906251</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="478">
@@ -5686,10 +5686,10 @@
         <v>476</v>
       </c>
       <c r="B478" t="n">
-        <v>19.648</v>
+        <v>4.904</v>
       </c>
       <c r="C478" t="n">
-        <v>906251</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="479">
@@ -5697,10 +5697,10 @@
         <v>477</v>
       </c>
       <c r="B479" t="n">
-        <v>19.36</v>
+        <v>3.512</v>
       </c>
       <c r="C479" t="n">
-        <v>906251</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="480">
@@ -5708,10 +5708,10 @@
         <v>478</v>
       </c>
       <c r="B480" t="n">
-        <v>4.232</v>
+        <v>14.928</v>
       </c>
       <c r="C480" t="n">
-        <v>906251</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="481">
@@ -5719,10 +5719,10 @@
         <v>479</v>
       </c>
       <c r="B481" t="n">
-        <v>14.952</v>
+        <v>19.12</v>
       </c>
       <c r="C481" t="n">
-        <v>906251</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="482">
@@ -5730,10 +5730,10 @@
         <v>480</v>
       </c>
       <c r="B482" t="n">
-        <v>19.424</v>
+        <v>19.44</v>
       </c>
       <c r="C482" t="n">
-        <v>906251</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="483">
@@ -5741,10 +5741,10 @@
         <v>481</v>
       </c>
       <c r="B483" t="n">
-        <v>19.68</v>
+        <v>19.4</v>
       </c>
       <c r="C483" t="n">
-        <v>906251</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="484">
@@ -5752,10 +5752,10 @@
         <v>482</v>
       </c>
       <c r="B484" t="n">
-        <v>19.84</v>
+        <v>19.672</v>
       </c>
       <c r="C484" t="n">
-        <v>906251</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="485">
@@ -5763,10 +5763,10 @@
         <v>483</v>
       </c>
       <c r="B485" t="n">
-        <v>19.968</v>
+        <v>9.568</v>
       </c>
       <c r="C485" t="n">
-        <v>906251</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="486">
@@ -5774,10 +5774,10 @@
         <v>484</v>
       </c>
       <c r="B486" t="n">
-        <v>9.968</v>
+        <v>9.928000000000001</v>
       </c>
       <c r="C486" t="n">
-        <v>906251</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="487">
@@ -5785,10 +5785,10 @@
         <v>485</v>
       </c>
       <c r="B487" t="n">
-        <v>9.976000000000001</v>
+        <v>314.904</v>
       </c>
       <c r="C487" t="n">
-        <v>906251</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="488">
@@ -5796,10 +5796,10 @@
         <v>486</v>
       </c>
       <c r="B488" t="n">
-        <v>4.68</v>
+        <v>4.568</v>
       </c>
       <c r="C488" t="n">
-        <v>937501</v>
+        <v>1000001</v>
       </c>
     </row>
     <row r="489">
@@ -5807,10 +5807,10 @@
         <v>487</v>
       </c>
       <c r="B489" t="n">
-        <v>14.976</v>
+        <v>5.376</v>
       </c>
       <c r="C489" t="n">
-        <v>937501</v>
+        <v>1000001</v>
       </c>
     </row>
     <row r="490">
@@ -5818,10 +5818,10 @@
         <v>488</v>
       </c>
       <c r="B490" t="n">
-        <v>14.816</v>
+        <v>4.656</v>
       </c>
       <c r="C490" t="n">
-        <v>937501</v>
+        <v>1000001</v>
       </c>
     </row>
     <row r="491">
@@ -5829,10 +5829,10 @@
         <v>489</v>
       </c>
       <c r="B491" t="n">
-        <v>4.976</v>
+        <v>10.336</v>
       </c>
       <c r="C491" t="n">
-        <v>937501</v>
+        <v>1000001</v>
       </c>
     </row>
     <row r="492">
@@ -5840,10 +5840,10 @@
         <v>490</v>
       </c>
       <c r="B492" t="n">
-        <v>14.456</v>
+        <v>4.752</v>
       </c>
       <c r="C492" t="n">
-        <v>937501</v>
+        <v>1000001</v>
       </c>
     </row>
     <row r="493">
@@ -5851,10 +5851,10 @@
         <v>491</v>
       </c>
       <c r="B493" t="n">
-        <v>4.968</v>
+        <v>12.832</v>
       </c>
       <c r="C493" t="n">
-        <v>937501</v>
+        <v>1000001</v>
       </c>
     </row>
     <row r="494">
@@ -5862,10 +5862,10 @@
         <v>492</v>
       </c>
       <c r="B494" t="n">
-        <v>4.424</v>
+        <v>4.744</v>
       </c>
       <c r="C494" t="n">
-        <v>937501</v>
+        <v>1000001</v>
       </c>
     </row>
     <row r="495">
@@ -5873,10 +5873,10 @@
         <v>493</v>
       </c>
       <c r="B495" t="n">
-        <v>14.976</v>
+        <v>14.144</v>
       </c>
       <c r="C495" t="n">
-        <v>937501</v>
+        <v>1000001</v>
       </c>
     </row>
     <row r="496">
@@ -5884,10 +5884,10 @@
         <v>494</v>
       </c>
       <c r="B496" t="n">
-        <v>19.68</v>
+        <v>4.92</v>
       </c>
       <c r="C496" t="n">
-        <v>937501</v>
+        <v>1000001</v>
       </c>
     </row>
     <row r="497">
@@ -5895,10 +5895,10 @@
         <v>495</v>
       </c>
       <c r="B497" t="n">
-        <v>19.808</v>
+        <v>14.824</v>
       </c>
       <c r="C497" t="n">
-        <v>937501</v>
+        <v>1000001</v>
       </c>
     </row>
     <row r="498">
@@ -5906,10 +5906,10 @@
         <v>496</v>
       </c>
       <c r="B498" t="n">
-        <v>19.776</v>
+        <v>4.92</v>
       </c>
       <c r="C498" t="n">
-        <v>937501</v>
+        <v>1000001</v>
       </c>
     </row>
     <row r="499">
@@ -5917,10 +5917,10 @@
         <v>497</v>
       </c>
       <c r="B499" t="n">
-        <v>19.88</v>
+        <v>39.904</v>
       </c>
       <c r="C499" t="n">
-        <v>937501</v>
+        <v>1000001</v>
       </c>
     </row>
     <row r="500">
@@ -5928,10 +5928,10 @@
         <v>498</v>
       </c>
       <c r="B500" t="n">
-        <v>9.872</v>
+        <v>19.832</v>
       </c>
       <c r="C500" t="n">
-        <v>937501</v>
+        <v>1000001</v>
       </c>
     </row>
     <row r="501">
@@ -5939,10 +5939,10 @@
         <v>499</v>
       </c>
       <c r="B501" t="n">
-        <v>9.976000000000001</v>
+        <v>18.696</v>
       </c>
       <c r="C501" t="n">
-        <v>937501</v>
+        <v>1000001</v>
       </c>
     </row>
     <row r="502">
@@ -5950,10 +5950,10 @@
         <v>500</v>
       </c>
       <c r="B502" t="n">
-        <v>314.968</v>
+        <v>18.144</v>
       </c>
       <c r="C502" t="n">
-        <v>937501</v>
+        <v>1000001</v>
       </c>
     </row>
     <row r="503">
@@ -5961,7 +5961,7 @@
         <v>501</v>
       </c>
       <c r="B503" t="n">
-        <v>4.856</v>
+        <v>17.872</v>
       </c>
       <c r="C503" t="n">
         <v>1000001</v>
@@ -5972,7 +5972,7 @@
         <v>502</v>
       </c>
       <c r="B504" t="n">
-        <v>11.456</v>
+        <v>19.24</v>
       </c>
       <c r="C504" t="n">
         <v>1000001</v>
@@ -5983,7 +5983,7 @@
         <v>503</v>
       </c>
       <c r="B505" t="n">
-        <v>4.88</v>
+        <v>19.024</v>
       </c>
       <c r="C505" t="n">
         <v>1000001</v>
@@ -5994,10 +5994,10 @@
         <v>504</v>
       </c>
       <c r="B506" t="n">
-        <v>13.336</v>
+        <v>19.632</v>
       </c>
       <c r="C506" t="n">
-        <v>1000001</v>
+        <v>1031251</v>
       </c>
     </row>
     <row r="507">
@@ -6005,10 +6005,10 @@
         <v>505</v>
       </c>
       <c r="B507" t="n">
-        <v>4.904</v>
+        <v>19.192</v>
       </c>
       <c r="C507" t="n">
-        <v>1000001</v>
+        <v>1031251</v>
       </c>
     </row>
     <row r="508">
@@ -6016,10 +6016,10 @@
         <v>506</v>
       </c>
       <c r="B508" t="n">
-        <v>14.232</v>
+        <v>19.288</v>
       </c>
       <c r="C508" t="n">
-        <v>1000001</v>
+        <v>1031251</v>
       </c>
     </row>
     <row r="509">
@@ -6027,10 +6027,10 @@
         <v>507</v>
       </c>
       <c r="B509" t="n">
-        <v>4.904</v>
+        <v>4.128</v>
       </c>
       <c r="C509" t="n">
-        <v>1000001</v>
+        <v>1031251</v>
       </c>
     </row>
     <row r="510">
@@ -6038,10 +6038,10 @@
         <v>508</v>
       </c>
       <c r="B510" t="n">
-        <v>14.712</v>
+        <v>14.928</v>
       </c>
       <c r="C510" t="n">
-        <v>1000001</v>
+        <v>1031251</v>
       </c>
     </row>
     <row r="511">
@@ -6049,10 +6049,10 @@
         <v>509</v>
       </c>
       <c r="B511" t="n">
-        <v>4.968</v>
+        <v>19.032</v>
       </c>
       <c r="C511" t="n">
-        <v>1000001</v>
+        <v>1031251</v>
       </c>
     </row>
     <row r="512">
@@ -6060,10 +6060,10 @@
         <v>510</v>
       </c>
       <c r="B512" t="n">
-        <v>14.968</v>
+        <v>18.256</v>
       </c>
       <c r="C512" t="n">
-        <v>1000001</v>
+        <v>1031251</v>
       </c>
     </row>
     <row r="513">
@@ -6071,10 +6071,10 @@
         <v>511</v>
       </c>
       <c r="B513" t="n">
-        <v>4.968</v>
+        <v>3.072</v>
       </c>
       <c r="C513" t="n">
-        <v>1000001</v>
+        <v>1031251</v>
       </c>
     </row>
     <row r="514">
@@ -6082,10 +6082,10 @@
         <v>512</v>
       </c>
       <c r="B514" t="n">
-        <v>39.968</v>
+        <v>14.856</v>
       </c>
       <c r="C514" t="n">
-        <v>1000001</v>
+        <v>1031251</v>
       </c>
     </row>
     <row r="515">
@@ -6093,10 +6093,10 @@
         <v>513</v>
       </c>
       <c r="B515" t="n">
-        <v>19.936</v>
+        <v>18.536</v>
       </c>
       <c r="C515" t="n">
-        <v>1000001</v>
+        <v>1031251</v>
       </c>
     </row>
     <row r="516">
@@ -6104,10 +6104,10 @@
         <v>514</v>
       </c>
       <c r="B516" t="n">
-        <v>19.552</v>
+        <v>19.128</v>
       </c>
       <c r="C516" t="n">
-        <v>1000001</v>
+        <v>1031251</v>
       </c>
     </row>
     <row r="517">
@@ -6115,10 +6115,10 @@
         <v>515</v>
       </c>
       <c r="B517" t="n">
-        <v>19.36</v>
+        <v>19.576</v>
       </c>
       <c r="C517" t="n">
-        <v>1000001</v>
+        <v>1031251</v>
       </c>
     </row>
     <row r="518">
@@ -6126,10 +6126,10 @@
         <v>516</v>
       </c>
       <c r="B518" t="n">
-        <v>19.2</v>
+        <v>19.912</v>
       </c>
       <c r="C518" t="n">
-        <v>1000001</v>
+        <v>1031251</v>
       </c>
     </row>
     <row r="519">
@@ -6137,10 +6137,10 @@
         <v>517</v>
       </c>
       <c r="B519" t="n">
-        <v>19.72</v>
+        <v>9.904</v>
       </c>
       <c r="C519" t="n">
-        <v>1000001</v>
+        <v>1031251</v>
       </c>
     </row>
     <row r="520">
@@ -6148,10 +6148,10 @@
         <v>518</v>
       </c>
       <c r="B520" t="n">
-        <v>19.648</v>
+        <v>9.928000000000001</v>
       </c>
       <c r="C520" t="n">
-        <v>1000001</v>
+        <v>1031251</v>
       </c>
     </row>
     <row r="521">
@@ -6159,10 +6159,10 @@
         <v>519</v>
       </c>
       <c r="B521" t="n">
-        <v>19.872</v>
+        <v>4.568</v>
       </c>
       <c r="C521" t="n">
-        <v>1031251</v>
+        <v>1062501</v>
       </c>
     </row>
     <row r="522">
@@ -6170,10 +6170,10 @@
         <v>520</v>
       </c>
       <c r="B522" t="n">
-        <v>19.712</v>
+        <v>14.928</v>
       </c>
       <c r="C522" t="n">
-        <v>1031251</v>
+        <v>1062501</v>
       </c>
     </row>
     <row r="523">
@@ -6181,10 +6181,10 @@
         <v>521</v>
       </c>
       <c r="B523" t="n">
-        <v>19.744</v>
+        <v>14.496</v>
       </c>
       <c r="C523" t="n">
-        <v>1031251</v>
+        <v>1062501</v>
       </c>
     </row>
     <row r="524">
@@ -6192,10 +6192,10 @@
         <v>522</v>
       </c>
       <c r="B524" t="n">
-        <v>4.648</v>
+        <v>4.928</v>
       </c>
       <c r="C524" t="n">
-        <v>1031251</v>
+        <v>1062501</v>
       </c>
     </row>
     <row r="525">
@@ -6203,10 +6203,10 @@
         <v>523</v>
       </c>
       <c r="B525" t="n">
-        <v>14.976</v>
+        <v>13.496</v>
       </c>
       <c r="C525" t="n">
-        <v>1031251</v>
+        <v>1062501</v>
       </c>
     </row>
     <row r="526">
@@ -6214,10 +6214,10 @@
         <v>524</v>
       </c>
       <c r="B526" t="n">
-        <v>19.648</v>
+        <v>4.904</v>
       </c>
       <c r="C526" t="n">
-        <v>1031251</v>
+        <v>1062501</v>
       </c>
     </row>
     <row r="527">
@@ -6225,10 +6225,10 @@
         <v>525</v>
       </c>
       <c r="B527" t="n">
-        <v>19.36</v>
+        <v>3.512</v>
       </c>
       <c r="C527" t="n">
-        <v>1031251</v>
+        <v>1062501</v>
       </c>
     </row>
     <row r="528">
@@ -6236,10 +6236,10 @@
         <v>526</v>
       </c>
       <c r="B528" t="n">
-        <v>4.232</v>
+        <v>14.928</v>
       </c>
       <c r="C528" t="n">
-        <v>1031251</v>
+        <v>1062501</v>
       </c>
     </row>
     <row r="529">
@@ -6247,10 +6247,10 @@
         <v>527</v>
       </c>
       <c r="B529" t="n">
-        <v>14.952</v>
+        <v>19.12</v>
       </c>
       <c r="C529" t="n">
-        <v>1031251</v>
+        <v>1062501</v>
       </c>
     </row>
     <row r="530">
@@ -6258,10 +6258,10 @@
         <v>528</v>
       </c>
       <c r="B530" t="n">
-        <v>19.424</v>
+        <v>19.44</v>
       </c>
       <c r="C530" t="n">
-        <v>1031251</v>
+        <v>1062501</v>
       </c>
     </row>
     <row r="531">
@@ -6269,10 +6269,10 @@
         <v>529</v>
       </c>
       <c r="B531" t="n">
-        <v>19.68</v>
+        <v>19.4</v>
       </c>
       <c r="C531" t="n">
-        <v>1031251</v>
+        <v>1062501</v>
       </c>
     </row>
     <row r="532">
@@ -6280,10 +6280,10 @@
         <v>530</v>
       </c>
       <c r="B532" t="n">
-        <v>19.84</v>
+        <v>19.672</v>
       </c>
       <c r="C532" t="n">
-        <v>1031251</v>
+        <v>1062501</v>
       </c>
     </row>
     <row r="533">
@@ -6291,10 +6291,10 @@
         <v>531</v>
       </c>
       <c r="B533" t="n">
-        <v>19.968</v>
+        <v>9.568</v>
       </c>
       <c r="C533" t="n">
-        <v>1031251</v>
+        <v>1062501</v>
       </c>
     </row>
     <row r="534">
@@ -6302,10 +6302,10 @@
         <v>532</v>
       </c>
       <c r="B534" t="n">
-        <v>9.968</v>
+        <v>9.928000000000001</v>
       </c>
       <c r="C534" t="n">
-        <v>1031251</v>
+        <v>1062501</v>
       </c>
     </row>
     <row r="535">
@@ -6313,10 +6313,10 @@
         <v>533</v>
       </c>
       <c r="B535" t="n">
-        <v>9.976000000000001</v>
+        <v>314.904</v>
       </c>
       <c r="C535" t="n">
-        <v>1031251</v>
+        <v>1062501</v>
       </c>
     </row>
     <row r="536">
@@ -6324,10 +6324,10 @@
         <v>534</v>
       </c>
       <c r="B536" t="n">
-        <v>4.68</v>
+        <v>4.568</v>
       </c>
       <c r="C536" t="n">
-        <v>1062501</v>
+        <v>1125001</v>
       </c>
     </row>
     <row r="537">
@@ -6335,10 +6335,10 @@
         <v>535</v>
       </c>
       <c r="B537" t="n">
-        <v>14.976</v>
+        <v>5.376</v>
       </c>
       <c r="C537" t="n">
-        <v>1062501</v>
+        <v>1125001</v>
       </c>
     </row>
     <row r="538">
@@ -6346,10 +6346,10 @@
         <v>536</v>
       </c>
       <c r="B538" t="n">
-        <v>14.816</v>
+        <v>4.656</v>
       </c>
       <c r="C538" t="n">
-        <v>1062501</v>
+        <v>1125001</v>
       </c>
     </row>
     <row r="539">
@@ -6357,10 +6357,10 @@
         <v>537</v>
       </c>
       <c r="B539" t="n">
-        <v>4.976</v>
+        <v>10.336</v>
       </c>
       <c r="C539" t="n">
-        <v>1062501</v>
+        <v>1125001</v>
       </c>
     </row>
     <row r="540">
@@ -6368,10 +6368,10 @@
         <v>538</v>
       </c>
       <c r="B540" t="n">
-        <v>14.456</v>
+        <v>4.752</v>
       </c>
       <c r="C540" t="n">
-        <v>1062501</v>
+        <v>1125001</v>
       </c>
     </row>
     <row r="541">
@@ -6379,10 +6379,10 @@
         <v>539</v>
       </c>
       <c r="B541" t="n">
-        <v>4.968</v>
+        <v>12.832</v>
       </c>
       <c r="C541" t="n">
-        <v>1062501</v>
+        <v>1125001</v>
       </c>
     </row>
     <row r="542">
@@ -6390,10 +6390,10 @@
         <v>540</v>
       </c>
       <c r="B542" t="n">
-        <v>4.424</v>
+        <v>4.744</v>
       </c>
       <c r="C542" t="n">
-        <v>1062501</v>
+        <v>1125001</v>
       </c>
     </row>
     <row r="543">
@@ -6401,10 +6401,10 @@
         <v>541</v>
       </c>
       <c r="B543" t="n">
-        <v>14.976</v>
+        <v>14.144</v>
       </c>
       <c r="C543" t="n">
-        <v>1062501</v>
+        <v>1125001</v>
       </c>
     </row>
     <row r="544">
@@ -6412,10 +6412,10 @@
         <v>542</v>
       </c>
       <c r="B544" t="n">
-        <v>19.68</v>
+        <v>4.92</v>
       </c>
       <c r="C544" t="n">
-        <v>1062501</v>
+        <v>1125001</v>
       </c>
     </row>
     <row r="545">
@@ -6423,10 +6423,10 @@
         <v>543</v>
       </c>
       <c r="B545" t="n">
-        <v>19.808</v>
+        <v>14.824</v>
       </c>
       <c r="C545" t="n">
-        <v>1062501</v>
+        <v>1125001</v>
       </c>
     </row>
     <row r="546">
@@ -6434,10 +6434,10 @@
         <v>544</v>
       </c>
       <c r="B546" t="n">
-        <v>19.776</v>
+        <v>4.92</v>
       </c>
       <c r="C546" t="n">
-        <v>1062501</v>
+        <v>1125001</v>
       </c>
     </row>
     <row r="547">
@@ -6445,10 +6445,10 @@
         <v>545</v>
       </c>
       <c r="B547" t="n">
-        <v>19.88</v>
+        <v>39.904</v>
       </c>
       <c r="C547" t="n">
-        <v>1062501</v>
+        <v>1125001</v>
       </c>
     </row>
     <row r="548">
@@ -6456,10 +6456,10 @@
         <v>546</v>
       </c>
       <c r="B548" t="n">
-        <v>9.872</v>
+        <v>19.832</v>
       </c>
       <c r="C548" t="n">
-        <v>1062501</v>
+        <v>1125001</v>
       </c>
     </row>
     <row r="549">
@@ -6467,10 +6467,10 @@
         <v>547</v>
       </c>
       <c r="B549" t="n">
-        <v>9.976000000000001</v>
+        <v>18.696</v>
       </c>
       <c r="C549" t="n">
-        <v>1062501</v>
+        <v>1125001</v>
       </c>
     </row>
     <row r="550">
@@ -6478,10 +6478,10 @@
         <v>548</v>
       </c>
       <c r="B550" t="n">
-        <v>314.968</v>
+        <v>18.144</v>
       </c>
       <c r="C550" t="n">
-        <v>1062501</v>
+        <v>1125001</v>
       </c>
     </row>
     <row r="551">
@@ -6489,7 +6489,7 @@
         <v>549</v>
       </c>
       <c r="B551" t="n">
-        <v>4.856</v>
+        <v>17.872</v>
       </c>
       <c r="C551" t="n">
         <v>1125001</v>
@@ -6500,7 +6500,7 @@
         <v>550</v>
       </c>
       <c r="B552" t="n">
-        <v>11.456</v>
+        <v>19.24</v>
       </c>
       <c r="C552" t="n">
         <v>1125001</v>
@@ -6511,7 +6511,7 @@
         <v>551</v>
       </c>
       <c r="B553" t="n">
-        <v>4.88</v>
+        <v>19.024</v>
       </c>
       <c r="C553" t="n">
         <v>1125001</v>
@@ -6522,10 +6522,10 @@
         <v>552</v>
       </c>
       <c r="B554" t="n">
-        <v>13.336</v>
+        <v>19.632</v>
       </c>
       <c r="C554" t="n">
-        <v>1125001</v>
+        <v>1156251</v>
       </c>
     </row>
     <row r="555">
@@ -6533,10 +6533,10 @@
         <v>553</v>
       </c>
       <c r="B555" t="n">
-        <v>4.904</v>
+        <v>19.192</v>
       </c>
       <c r="C555" t="n">
-        <v>1125001</v>
+        <v>1156251</v>
       </c>
     </row>
     <row r="556">
@@ -6544,10 +6544,10 @@
         <v>554</v>
       </c>
       <c r="B556" t="n">
-        <v>14.232</v>
+        <v>19.288</v>
       </c>
       <c r="C556" t="n">
-        <v>1125001</v>
+        <v>1156251</v>
       </c>
     </row>
     <row r="557">
@@ -6555,10 +6555,10 @@
         <v>555</v>
       </c>
       <c r="B557" t="n">
-        <v>4.904</v>
+        <v>4.128</v>
       </c>
       <c r="C557" t="n">
-        <v>1125001</v>
+        <v>1156251</v>
       </c>
     </row>
     <row r="558">
@@ -6566,10 +6566,10 @@
         <v>556</v>
       </c>
       <c r="B558" t="n">
-        <v>14.712</v>
+        <v>14.928</v>
       </c>
       <c r="C558" t="n">
-        <v>1125001</v>
+        <v>1156251</v>
       </c>
     </row>
     <row r="559">
@@ -6577,10 +6577,10 @@
         <v>557</v>
       </c>
       <c r="B559" t="n">
-        <v>4.968</v>
+        <v>19.032</v>
       </c>
       <c r="C559" t="n">
-        <v>1125001</v>
+        <v>1156251</v>
       </c>
     </row>
     <row r="560">
@@ -6588,10 +6588,10 @@
         <v>558</v>
       </c>
       <c r="B560" t="n">
-        <v>14.968</v>
+        <v>18.256</v>
       </c>
       <c r="C560" t="n">
-        <v>1125001</v>
+        <v>1156251</v>
       </c>
     </row>
     <row r="561">
@@ -6599,10 +6599,10 @@
         <v>559</v>
       </c>
       <c r="B561" t="n">
-        <v>4.968</v>
+        <v>3.072</v>
       </c>
       <c r="C561" t="n">
-        <v>1125001</v>
+        <v>1156251</v>
       </c>
     </row>
     <row r="562">
@@ -6610,10 +6610,10 @@
         <v>560</v>
       </c>
       <c r="B562" t="n">
-        <v>39.968</v>
+        <v>14.856</v>
       </c>
       <c r="C562" t="n">
-        <v>1125001</v>
+        <v>1156251</v>
       </c>
     </row>
     <row r="563">
@@ -6621,10 +6621,10 @@
         <v>561</v>
       </c>
       <c r="B563" t="n">
-        <v>19.936</v>
+        <v>18.536</v>
       </c>
       <c r="C563" t="n">
-        <v>1125001</v>
+        <v>1156251</v>
       </c>
     </row>
     <row r="564">
@@ -6632,10 +6632,10 @@
         <v>562</v>
       </c>
       <c r="B564" t="n">
-        <v>19.552</v>
+        <v>19.128</v>
       </c>
       <c r="C564" t="n">
-        <v>1125001</v>
+        <v>1156251</v>
       </c>
     </row>
     <row r="565">
@@ -6643,10 +6643,10 @@
         <v>563</v>
       </c>
       <c r="B565" t="n">
-        <v>19.36</v>
+        <v>19.576</v>
       </c>
       <c r="C565" t="n">
-        <v>1125001</v>
+        <v>1156251</v>
       </c>
     </row>
     <row r="566">
@@ -6654,10 +6654,10 @@
         <v>564</v>
       </c>
       <c r="B566" t="n">
-        <v>19.2</v>
+        <v>19.912</v>
       </c>
       <c r="C566" t="n">
-        <v>1125001</v>
+        <v>1156251</v>
       </c>
     </row>
     <row r="567">
@@ -6665,10 +6665,10 @@
         <v>565</v>
       </c>
       <c r="B567" t="n">
-        <v>19.72</v>
+        <v>9.904</v>
       </c>
       <c r="C567" t="n">
-        <v>1125001</v>
+        <v>1156251</v>
       </c>
     </row>
     <row r="568">
@@ -6676,10 +6676,10 @@
         <v>566</v>
       </c>
       <c r="B568" t="n">
-        <v>19.648</v>
+        <v>9.928000000000001</v>
       </c>
       <c r="C568" t="n">
-        <v>1125001</v>
+        <v>1156251</v>
       </c>
     </row>
     <row r="569">
@@ -6687,10 +6687,10 @@
         <v>567</v>
       </c>
       <c r="B569" t="n">
-        <v>19.872</v>
+        <v>4.568</v>
       </c>
       <c r="C569" t="n">
-        <v>1156251</v>
+        <v>1187501</v>
       </c>
     </row>
     <row r="570">
@@ -6698,10 +6698,10 @@
         <v>568</v>
       </c>
       <c r="B570" t="n">
-        <v>19.712</v>
+        <v>14.928</v>
       </c>
       <c r="C570" t="n">
-        <v>1156251</v>
+        <v>1187501</v>
       </c>
     </row>
     <row r="571">
@@ -6709,10 +6709,10 @@
         <v>569</v>
       </c>
       <c r="B571" t="n">
-        <v>19.744</v>
+        <v>14.496</v>
       </c>
       <c r="C571" t="n">
-        <v>1156251</v>
+        <v>1187501</v>
       </c>
     </row>
     <row r="572">
@@ -6720,10 +6720,10 @@
         <v>570</v>
       </c>
       <c r="B572" t="n">
-        <v>4.648</v>
+        <v>4.928</v>
       </c>
       <c r="C572" t="n">
-        <v>1156251</v>
+        <v>1187501</v>
       </c>
     </row>
     <row r="573">
@@ -6731,10 +6731,10 @@
         <v>571</v>
       </c>
       <c r="B573" t="n">
-        <v>14.976</v>
+        <v>13.496</v>
       </c>
       <c r="C573" t="n">
-        <v>1156251</v>
+        <v>1187501</v>
       </c>
     </row>
     <row r="574">
@@ -6742,10 +6742,10 @@
         <v>572</v>
       </c>
       <c r="B574" t="n">
-        <v>19.648</v>
+        <v>4.904</v>
       </c>
       <c r="C574" t="n">
-        <v>1156251</v>
+        <v>1187501</v>
       </c>
     </row>
     <row r="575">
@@ -6753,10 +6753,10 @@
         <v>573</v>
       </c>
       <c r="B575" t="n">
-        <v>19.36</v>
+        <v>3.512</v>
       </c>
       <c r="C575" t="n">
-        <v>1156251</v>
+        <v>1187501</v>
       </c>
     </row>
     <row r="576">
@@ -6764,10 +6764,10 @@
         <v>574</v>
       </c>
       <c r="B576" t="n">
-        <v>4.232</v>
+        <v>14.928</v>
       </c>
       <c r="C576" t="n">
-        <v>1156251</v>
+        <v>1187501</v>
       </c>
     </row>
     <row r="577">
@@ -6775,10 +6775,10 @@
         <v>575</v>
       </c>
       <c r="B577" t="n">
-        <v>14.952</v>
+        <v>19.12</v>
       </c>
       <c r="C577" t="n">
-        <v>1156251</v>
+        <v>1187501</v>
       </c>
     </row>
     <row r="578">
@@ -6786,10 +6786,10 @@
         <v>576</v>
       </c>
       <c r="B578" t="n">
-        <v>19.424</v>
+        <v>19.44</v>
       </c>
       <c r="C578" t="n">
-        <v>1156251</v>
+        <v>1187501</v>
       </c>
     </row>
     <row r="579">
@@ -6797,10 +6797,10 @@
         <v>577</v>
       </c>
       <c r="B579" t="n">
-        <v>19.68</v>
+        <v>19.4</v>
       </c>
       <c r="C579" t="n">
-        <v>1156251</v>
+        <v>1187501</v>
       </c>
     </row>
     <row r="580">
@@ -6808,10 +6808,10 @@
         <v>578</v>
       </c>
       <c r="B580" t="n">
-        <v>19.84</v>
+        <v>19.672</v>
       </c>
       <c r="C580" t="n">
-        <v>1156251</v>
+        <v>1187501</v>
       </c>
     </row>
     <row r="581">
@@ -6819,10 +6819,10 @@
         <v>579</v>
       </c>
       <c r="B581" t="n">
-        <v>19.968</v>
+        <v>9.552</v>
       </c>
       <c r="C581" t="n">
-        <v>1156251</v>
+        <v>1187501</v>
       </c>
     </row>
     <row r="582">
@@ -6830,174 +6830,9 @@
         <v>580</v>
       </c>
       <c r="B582" t="n">
-        <v>9.968</v>
+        <v>321.928</v>
       </c>
       <c r="C582" t="n">
-        <v>1156251</v>
-      </c>
-    </row>
-    <row r="583">
-      <c r="A583" s="1" t="n">
-        <v>581</v>
-      </c>
-      <c r="B583" t="n">
-        <v>9.976000000000001</v>
-      </c>
-      <c r="C583" t="n">
-        <v>1156251</v>
-      </c>
-    </row>
-    <row r="584">
-      <c r="A584" s="1" t="n">
-        <v>582</v>
-      </c>
-      <c r="B584" t="n">
-        <v>4.68</v>
-      </c>
-      <c r="C584" t="n">
-        <v>1187501</v>
-      </c>
-    </row>
-    <row r="585">
-      <c r="A585" s="1" t="n">
-        <v>583</v>
-      </c>
-      <c r="B585" t="n">
-        <v>14.976</v>
-      </c>
-      <c r="C585" t="n">
-        <v>1187501</v>
-      </c>
-    </row>
-    <row r="586">
-      <c r="A586" s="1" t="n">
-        <v>584</v>
-      </c>
-      <c r="B586" t="n">
-        <v>14.816</v>
-      </c>
-      <c r="C586" t="n">
-        <v>1187501</v>
-      </c>
-    </row>
-    <row r="587">
-      <c r="A587" s="1" t="n">
-        <v>585</v>
-      </c>
-      <c r="B587" t="n">
-        <v>4.976</v>
-      </c>
-      <c r="C587" t="n">
-        <v>1187501</v>
-      </c>
-    </row>
-    <row r="588">
-      <c r="A588" s="1" t="n">
-        <v>586</v>
-      </c>
-      <c r="B588" t="n">
-        <v>14.456</v>
-      </c>
-      <c r="C588" t="n">
-        <v>1187501</v>
-      </c>
-    </row>
-    <row r="589">
-      <c r="A589" s="1" t="n">
-        <v>587</v>
-      </c>
-      <c r="B589" t="n">
-        <v>4.968</v>
-      </c>
-      <c r="C589" t="n">
-        <v>1187501</v>
-      </c>
-    </row>
-    <row r="590">
-      <c r="A590" s="1" t="n">
-        <v>588</v>
-      </c>
-      <c r="B590" t="n">
-        <v>4.424</v>
-      </c>
-      <c r="C590" t="n">
-        <v>1187501</v>
-      </c>
-    </row>
-    <row r="591">
-      <c r="A591" s="1" t="n">
-        <v>589</v>
-      </c>
-      <c r="B591" t="n">
-        <v>14.976</v>
-      </c>
-      <c r="C591" t="n">
-        <v>1187501</v>
-      </c>
-    </row>
-    <row r="592">
-      <c r="A592" s="1" t="n">
-        <v>590</v>
-      </c>
-      <c r="B592" t="n">
-        <v>19.68</v>
-      </c>
-      <c r="C592" t="n">
-        <v>1187501</v>
-      </c>
-    </row>
-    <row r="593">
-      <c r="A593" s="1" t="n">
-        <v>591</v>
-      </c>
-      <c r="B593" t="n">
-        <v>19.808</v>
-      </c>
-      <c r="C593" t="n">
-        <v>1187501</v>
-      </c>
-    </row>
-    <row r="594">
-      <c r="A594" s="1" t="n">
-        <v>592</v>
-      </c>
-      <c r="B594" t="n">
-        <v>19.776</v>
-      </c>
-      <c r="C594" t="n">
-        <v>1187501</v>
-      </c>
-    </row>
-    <row r="595">
-      <c r="A595" s="1" t="n">
-        <v>593</v>
-      </c>
-      <c r="B595" t="n">
-        <v>19.88</v>
-      </c>
-      <c r="C595" t="n">
-        <v>1187501</v>
-      </c>
-    </row>
-    <row r="596">
-      <c r="A596" s="1" t="n">
-        <v>594</v>
-      </c>
-      <c r="B596" t="n">
-        <v>9.872</v>
-      </c>
-      <c r="C596" t="n">
-        <v>1187501</v>
-      </c>
-    </row>
-    <row r="597">
-      <c r="A597" s="1" t="n">
-        <v>595</v>
-      </c>
-      <c r="B597" t="n">
-        <v>321.976</v>
-      </c>
-      <c r="C597" t="n">
         <v>1187501</v>
       </c>
     </row>
